--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_5_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2509179.949893032</v>
+        <v>2515309.883261678</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2493109.775398645</v>
+        <v>2493109.775398642</v>
       </c>
     </row>
     <row r="8">
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>67.32970781743738</v>
       </c>
       <c r="U11" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="V11" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="W11" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="X11" t="n">
-        <v>67.32970781743744</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1458,16 +1458,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.32970781743738</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>67.32970781743744</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="S13" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="T13" t="n">
-        <v>1.008846363149503</v>
+        <v>1.00884636314962</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>67.32970781743744</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.32970781743738</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,22 +1689,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.32970781743744</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>67.32970781743738</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="I16" t="n">
-        <v>39.98188296120276</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.98188296120301</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1847,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E17" t="n">
-        <v>14.53172401811287</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1859,10 +1859,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>197.7536616253292</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>153.8109557047907</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>159.9862710432391</v>
+        <v>159.986271043239</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>134.7228376195621</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>21.24341981580258</v>
       </c>
       <c r="F18" t="n">
-        <v>56.30017097532939</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>158.9609431587612</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>187.4425007497449</v>
       </c>
       <c r="U18" t="n">
-        <v>213.2191541358981</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>238.9727552158429</v>
       </c>
       <c r="X18" t="n">
-        <v>193.0507572584008</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>192.9604678322277</v>
       </c>
     </row>
     <row r="19">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>50.13671458355681</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>142.7282469821816</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>192.8649615657384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2084,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2135,16 +2135,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>159.986271043239</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2211,13 +2211,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>187.4425007497449</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>220.0783592043486</v>
+        <v>150.3580009267088</v>
       </c>
       <c r="W21" t="n">
         <v>238.9727552158429</v>
@@ -2226,7 +2226,7 @@
         <v>193.0507572584008</v>
       </c>
       <c r="Y21" t="n">
-        <v>95.78387984808199</v>
+        <v>192.9604678322277</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>167.1097522368606</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>25.75520932887776</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>192.8649615657384</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>252.2746071582359</v>
       </c>
       <c r="E23" t="n">
-        <v>292.5337372208467</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>313.4287721690761</v>
@@ -2333,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>250.0781692643521</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>100.4693645134777</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>259.8443358659979</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="24">
@@ -2406,13 +2406,13 @@
         <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
-        <v>50.88377726910467</v>
+        <v>28.04496588402328</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>80.77964253239543</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>89.22092727613413</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>275.8762589195925</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>265.2864087692679</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>313.4287721690761</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>313.4287721690761</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>58.6074718560315</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>132.5798048596915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2643,13 +2643,13 @@
         <v>68.24844760398589</v>
       </c>
       <c r="F27" t="n">
-        <v>55.67257954196883</v>
+        <v>50.8837772691043</v>
       </c>
       <c r="G27" t="n">
-        <v>47.94688431179559</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508141</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122808</v>
       </c>
       <c r="S27" t="n">
-        <v>17.4732415839093</v>
+        <v>82.28653825242277</v>
       </c>
       <c r="T27" t="n">
         <v>110.7680958434066</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.306330437391902</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.83053965602453</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.05384207584324</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.89675852575444</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>80.77964253239509</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,22 +2792,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>271.8798389860704</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>232.2338144937688</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>313.4829929567742</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>246.08174933083</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>117.0828367854687</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>234.3592056851977</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>255.8479159324758</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>276.3380478935318</v>
       </c>
       <c r="Y29" t="n">
-        <v>106.7310312806173</v>
+        <v>292.8448858711164</v>
       </c>
     </row>
     <row r="30">
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.14013086493013</v>
+        <v>73.14013086493014</v>
       </c>
       <c r="C30" t="n">
-        <v>79.31544620337853</v>
+        <v>79.31544620337854</v>
       </c>
       <c r="D30" t="n">
-        <v>54.05201277970154</v>
+        <v>54.05201277970156</v>
       </c>
       <c r="E30" t="n">
-        <v>64.25202767046373</v>
+        <v>64.25202767046375</v>
       </c>
       <c r="F30" t="n">
-        <v>51.67615960844667</v>
+        <v>51.67615960844668</v>
       </c>
       <c r="G30" t="n">
-        <v>43.95046437827342</v>
+        <v>43.95046437827344</v>
       </c>
       <c r="H30" t="n">
-        <v>18.84239145155925</v>
+        <v>18.84239145155927</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>6.764781367705922</v>
+        <v>6.764781367705936</v>
       </c>
       <c r="S30" t="n">
-        <v>78.29011831890061</v>
+        <v>78.29011831890062</v>
       </c>
       <c r="T30" t="n">
         <v>106.7716759098844</v>
@@ -2937,7 +2937,7 @@
         <v>112.3799324185403</v>
       </c>
       <c r="Y30" t="n">
-        <v>112.2896429923671</v>
+        <v>112.2896429923672</v>
       </c>
     </row>
     <row r="31">
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>86.43892739700009</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>73.85376831369064</v>
       </c>
       <c r="D31" t="n">
-        <v>55.22242023327514</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>53.04090986163196</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>52.02799523799403</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.05742214232107</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>83.90033859223229</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>37.9116308441078</v>
+        <v>134.5525366433443</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>179.5842627342202</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>125.1916005671576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3038,16 +3038,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>313.4829929567742</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>317.4558281799268</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>246.08174933083</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>53.15612879641387</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>56.47606515621248</v>
       </c>
       <c r="S32" t="n">
-        <v>115.6270168013082</v>
+        <v>115.6270168013081</v>
       </c>
       <c r="T32" t="n">
         <v>129.7027967791942</v>
       </c>
       <c r="U32" t="n">
-        <v>157.9526001228993</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>234.3592056851977</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>255.8479159324758</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>276.3380478935318</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>62.15499478605281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,25 +3105,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>73.14013086493016</v>
+        <v>73.14013086492996</v>
       </c>
       <c r="C33" t="n">
-        <v>79.31544620337856</v>
+        <v>79.31544620337854</v>
       </c>
       <c r="D33" t="n">
-        <v>54.05201277970157</v>
+        <v>54.05201277970156</v>
       </c>
       <c r="E33" t="n">
-        <v>64.25202767046376</v>
+        <v>64.25202767046375</v>
       </c>
       <c r="F33" t="n">
-        <v>51.6761596084467</v>
+        <v>51.67615960844668</v>
       </c>
       <c r="G33" t="n">
         <v>43.95046437827344</v>
       </c>
       <c r="H33" t="n">
-        <v>18.84239145155928</v>
+        <v>18.84239145155927</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>6.76478136770595</v>
+        <v>6.764781367705936</v>
       </c>
       <c r="S33" t="n">
-        <v>78.29011831890064</v>
+        <v>78.29011831890062</v>
       </c>
       <c r="T33" t="n">
         <v>106.7716759098844</v>
       </c>
       <c r="U33" t="n">
-        <v>132.5483292960377</v>
+        <v>132.5483292960376</v>
       </c>
       <c r="V33" t="n">
         <v>139.4075343644881</v>
@@ -3238,19 +3238,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>134.5525366433443</v>
       </c>
       <c r="U34" t="n">
         <v>192.9259765715537</v>
       </c>
       <c r="V34" t="n">
-        <v>158.7445905388908</v>
+        <v>144.4123930685895</v>
       </c>
       <c r="W34" t="n">
         <v>193.1299455516538</v>
       </c>
       <c r="X34" t="n">
-        <v>120.220339173043</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.14013086493016</v>
+        <v>73.14013086493014</v>
       </c>
       <c r="C36" t="n">
-        <v>79.31544620337856</v>
+        <v>79.31544620337854</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>54.05201277970156</v>
       </c>
       <c r="E36" t="n">
-        <v>64.25202767046376</v>
+        <v>64.25202767046375</v>
       </c>
       <c r="F36" t="n">
-        <v>51.6761596084467</v>
+        <v>51.67615960844668</v>
       </c>
       <c r="G36" t="n">
-        <v>43.95046437827345</v>
+        <v>43.95046437827344</v>
       </c>
       <c r="H36" t="n">
-        <v>18.84239145155928</v>
+        <v>18.84239145155927</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>34.57978423673836</v>
       </c>
       <c r="U36" t="n">
-        <v>81.77259194798931</v>
+        <v>132.5483292960376</v>
       </c>
       <c r="V36" t="n">
-        <v>139.4075343644881</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>158.3019303759824</v>
@@ -3427,22 +3427,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.386057809558519</v>
+        <v>55.22242023327516</v>
       </c>
       <c r="E37" t="n">
-        <v>53.04090986163199</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>52.02799523799406</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.59792657352158</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.83411972250239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.0574221423211</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.9003385922323</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.6235452520351</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>134.5525366433443</v>
+        <v>0.4156923400638664</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>158.7445905388908</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>193.1299455516538</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>132.3166026041</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>125.1916005671576</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,19 +3551,19 @@
         <v>133.1504700625509</v>
       </c>
       <c r="S38" t="n">
-        <v>79.13491558089108</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.3772016855326</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>113.7720027730176</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>155.989851109717</v>
+        <v>155.9898511097169</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.79152052953512</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>154.964523225239</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>183.4460808162228</v>
+        <v>164.9793903686211</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>209.222734202376</v>
       </c>
       <c r="V39" t="n">
         <v>216.0819392708265</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.1133323033385</v>
+        <v>61.92124422993452</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>150.528173220029</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>49.33608514662497</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3740,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>67.32970781743738</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="E41" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="F41" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="G41" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>67.32970781743744</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>67.32970781743738</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="T42" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>67.32970781743744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3901,13 +3901,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>36.19409739863337</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>36.19409739863326</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="C44" t="n">
-        <v>76.44153930226776</v>
+        <v>67.32970781743738</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>45.38971924828014</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,13 +4019,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>76.44153930226776</v>
+        <v>67.32970781743738</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="H45" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>67.32970781743744</v>
+        <v>76.4415393022677</v>
       </c>
     </row>
     <row r="46">
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>56.74542828310029</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>56.74542828310035</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="C11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="D11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="E11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="F11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="G11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K11" t="n">
-        <v>81.7924470534265</v>
+        <v>81.79244705342644</v>
       </c>
       <c r="L11" t="n">
-        <v>154.4119093905808</v>
+        <v>154.4119093905807</v>
       </c>
       <c r="M11" t="n">
-        <v>230.0890332998259</v>
+        <v>154.4119093905807</v>
       </c>
       <c r="N11" t="n">
-        <v>230.0890332998259</v>
+        <v>154.4119093905807</v>
       </c>
       <c r="O11" t="n">
-        <v>305.766157209071</v>
+        <v>230.0890332998258</v>
       </c>
       <c r="P11" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="Q11" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="R11" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="S11" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="T11" t="n">
-        <v>305.766157209071</v>
+        <v>237.7563513328714</v>
       </c>
       <c r="U11" t="n">
-        <v>228.5524811461743</v>
+        <v>160.5426752699748</v>
       </c>
       <c r="V11" t="n">
-        <v>151.3388050832776</v>
+        <v>83.32899920707808</v>
       </c>
       <c r="W11" t="n">
-        <v>74.12512902038085</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="X11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.115323144181421</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="C12" t="n">
-        <v>6.115323144181421</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="D12" t="n">
-        <v>6.115323144181421</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="E12" t="n">
-        <v>6.115323144181421</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="F12" t="n">
-        <v>6.115323144181421</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="G12" t="n">
-        <v>6.115323144181421</v>
+        <v>151.3388050832775</v>
       </c>
       <c r="H12" t="n">
-        <v>6.115323144181421</v>
+        <v>74.1251290203808</v>
       </c>
       <c r="I12" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J12" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K12" t="n">
-        <v>81.7924470534265</v>
+        <v>81.79244705342644</v>
       </c>
       <c r="L12" t="n">
-        <v>157.4695709626716</v>
+        <v>85.01735087725145</v>
       </c>
       <c r="M12" t="n">
-        <v>230.0890332998259</v>
+        <v>160.6944747864965</v>
       </c>
       <c r="N12" t="n">
-        <v>230.0890332998259</v>
+        <v>160.6944747864965</v>
       </c>
       <c r="O12" t="n">
-        <v>230.0890332998259</v>
+        <v>236.3715986957415</v>
       </c>
       <c r="P12" t="n">
-        <v>305.766157209071</v>
+        <v>236.3715986957415</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="R12" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="S12" t="n">
-        <v>228.5524811461743</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="T12" t="n">
-        <v>151.3388050832776</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="U12" t="n">
-        <v>151.3388050832776</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="V12" t="n">
-        <v>74.12512902038085</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="W12" t="n">
-        <v>6.115323144181421</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="X12" t="n">
-        <v>6.115323144181421</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.115323144181421</v>
+        <v>305.7661572090708</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="C13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="D13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="E13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="F13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="G13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="L13" t="n">
         <v>38.15111309064083</v>
       </c>
       <c r="M13" t="n">
-        <v>82.06081622160946</v>
+        <v>82.06081622160944</v>
       </c>
       <c r="N13" t="n">
         <v>130.4733318157922</v>
@@ -5221,28 +5221,28 @@
         <v>161.5617120004289</v>
       </c>
       <c r="R13" t="n">
-        <v>84.34803593753219</v>
+        <v>84.34803593753225</v>
       </c>
       <c r="S13" t="n">
-        <v>7.134359874635464</v>
+        <v>7.134359874635578</v>
       </c>
       <c r="T13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="U13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="V13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="W13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="X13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="C14" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="D14" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="E14" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="F14" t="n">
-        <v>237.7563513328716</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="G14" t="n">
-        <v>160.5426752699749</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H14" t="n">
-        <v>83.32899920707814</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I14" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J14" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K14" t="n">
-        <v>78.73478548133575</v>
+        <v>81.79244705342644</v>
       </c>
       <c r="L14" t="n">
-        <v>154.4119093905808</v>
+        <v>154.4119093905807</v>
       </c>
       <c r="M14" t="n">
-        <v>230.0890332998259</v>
+        <v>154.4119093905807</v>
       </c>
       <c r="N14" t="n">
-        <v>230.0890332998259</v>
+        <v>154.4119093905807</v>
       </c>
       <c r="O14" t="n">
-        <v>305.766157209071</v>
+        <v>230.0890332998258</v>
       </c>
       <c r="P14" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="Q14" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="R14" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="S14" t="n">
-        <v>305.766157209071</v>
+        <v>237.7563513328714</v>
       </c>
       <c r="T14" t="n">
-        <v>305.766157209071</v>
+        <v>160.5426752699748</v>
       </c>
       <c r="U14" t="n">
-        <v>305.766157209071</v>
+        <v>83.32899920707808</v>
       </c>
       <c r="V14" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="W14" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="X14" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="C15" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="D15" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="E15" t="n">
-        <v>228.5524811461743</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="F15" t="n">
-        <v>151.3388050832776</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="G15" t="n">
-        <v>74.12512902038085</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H15" t="n">
-        <v>74.12512902038085</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I15" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J15" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K15" t="n">
-        <v>81.7924470534265</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="L15" t="n">
-        <v>81.7924470534265</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="M15" t="n">
-        <v>81.7924470534265</v>
+        <v>9.340226968006419</v>
       </c>
       <c r="N15" t="n">
-        <v>85.01735087725156</v>
+        <v>85.01735087725145</v>
       </c>
       <c r="O15" t="n">
-        <v>160.6944747864966</v>
+        <v>160.6944747864965</v>
       </c>
       <c r="P15" t="n">
-        <v>236.3715986957417</v>
+        <v>236.3715986957415</v>
       </c>
       <c r="Q15" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="R15" t="n">
-        <v>305.766157209071</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="S15" t="n">
-        <v>305.766157209071</v>
+        <v>151.3388050832775</v>
       </c>
       <c r="T15" t="n">
-        <v>305.766157209071</v>
+        <v>83.32899920707808</v>
       </c>
       <c r="U15" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="V15" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="W15" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="X15" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="Y15" t="n">
-        <v>305.766157209071</v>
+        <v>6.115323144181416</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="C16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="D16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="E16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="F16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="G16" t="n">
-        <v>123.7147395719294</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="H16" t="n">
-        <v>46.50106350903269</v>
+        <v>123.7147395719296</v>
       </c>
       <c r="I16" t="n">
-        <v>6.115323144181421</v>
+        <v>46.50106350903295</v>
       </c>
       <c r="J16" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K16" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="L16" t="n">
-        <v>46.02445381752028</v>
+        <v>46.02445381752031</v>
       </c>
       <c r="M16" t="n">
-        <v>97.80749767536835</v>
+        <v>97.80749767536841</v>
       </c>
       <c r="N16" t="n">
         <v>154.0933539964306</v>
       </c>
       <c r="O16" t="n">
-        <v>191.0276362969557</v>
+        <v>191.0276362969558</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="Q16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="R16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="S16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="T16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="U16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="V16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="W16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="X16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.9284156348261</v>
+        <v>200.9284156348263</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E17" t="n">
-        <v>949.3786464014313</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>705.9298697573313</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>462.4810931132312</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>219.0323164691312</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>237.7522966643223</v>
+        <v>338.4251112704185</v>
       </c>
       <c r="C18" t="n">
-        <v>76.15000268125252</v>
+        <v>176.8228172873487</v>
       </c>
       <c r="D18" t="n">
-        <v>76.15000268125252</v>
+        <v>40.73914292415472</v>
       </c>
       <c r="E18" t="n">
-        <v>76.15000268125252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5595,22 +5595,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,25 +5619,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>803.4905462593623</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>803.4905462593623</v>
+        <v>774.7212961674595</v>
       </c>
       <c r="U18" t="n">
-        <v>588.1176632938086</v>
+        <v>774.7212961674595</v>
       </c>
       <c r="V18" t="n">
-        <v>588.1176632938086</v>
+        <v>774.7212961674595</v>
       </c>
       <c r="W18" t="n">
-        <v>588.1176632938086</v>
+        <v>533.3346747373151</v>
       </c>
       <c r="X18" t="n">
-        <v>393.1168983863331</v>
+        <v>533.3346747373151</v>
       </c>
       <c r="Y18" t="n">
-        <v>393.1168983863331</v>
+        <v>338.4251112704185</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>163.4510895568608</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>163.4510895568608</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>163.4510895568608</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>163.4510895568608</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>163.4510895568608</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>163.4510895568608</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>163.4510895568608</v>
       </c>
       <c r="I19" t="n">
         <v>19.28114311021272</v>
@@ -5707,16 +5707,16 @@
         <v>214.0942356008576</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>214.0942356008576</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>214.0942356008576</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>214.0942356008576</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>214.0942356008576</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D20" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E20" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D20" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E20" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5783,19 +5783,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V20" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W20" t="n">
         <v>749.627473042513</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="W20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X20" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,7 +5805,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>180.8834370932825</v>
       </c>
       <c r="C21" t="n">
         <v>19.28114311021272</v>
@@ -5841,10 +5841,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>774.7212961674595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>774.7212961674595</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>552.4199232337741</v>
+        <v>812.1803868977991</v>
       </c>
       <c r="W21" t="n">
-        <v>311.0333018036297</v>
+        <v>570.7937654676547</v>
       </c>
       <c r="X21" t="n">
-        <v>116.0325368961541</v>
+        <v>375.7930005601792</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>180.8834370932825</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.29650606867511</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5938,22 +5938,22 @@
         <v>214.0942356008576</v>
       </c>
       <c r="T22" t="n">
-        <v>214.0942356008576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>214.0942356008576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>214.0942356008576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>214.0942356008576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>214.0942356008576</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.0942356008576</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>991.2460625490338</v>
+        <v>596.4918566495988</v>
       </c>
       <c r="C23" t="n">
-        <v>991.2460625490338</v>
+        <v>596.4918566495988</v>
       </c>
       <c r="D23" t="n">
-        <v>991.2460625490338</v>
+        <v>341.6690211362293</v>
       </c>
       <c r="E23" t="n">
-        <v>695.7574390936331</v>
+        <v>341.6690211362293</v>
       </c>
       <c r="F23" t="n">
-        <v>379.16271973093</v>
+        <v>25.07430177352609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.16271973093</v>
+        <v>25.07430177352609</v>
       </c>
       <c r="H23" t="n">
-        <v>126.5585083527965</v>
+        <v>25.07430177352609</v>
       </c>
       <c r="I23" t="n">
         <v>25.07430177352609</v>
@@ -5990,49 +5990,49 @@
         <v>101.7471718353606</v>
       </c>
       <c r="K23" t="n">
-        <v>204.762177746283</v>
+        <v>244.8395413634009</v>
       </c>
       <c r="L23" t="n">
-        <v>384.8380293309416</v>
+        <v>424.9153929480595</v>
       </c>
       <c r="M23" t="n">
-        <v>690.3163231167466</v>
+        <v>641.8910202109637</v>
       </c>
       <c r="N23" t="n">
-        <v>896.170845323986</v>
+        <v>847.7455424182031</v>
       </c>
       <c r="O23" t="n">
-        <v>1045.365795466634</v>
+        <v>996.9404925608511</v>
       </c>
       <c r="P23" t="n">
-        <v>1223.528517281586</v>
+        <v>1175.103214375803</v>
       </c>
       <c r="Q23" t="n">
         <v>1253.715088676305</v>
       </c>
       <c r="R23" t="n">
-        <v>1253.715088676305</v>
+        <v>1192.631770403845</v>
       </c>
       <c r="S23" t="n">
-        <v>1253.715088676305</v>
+        <v>1192.631770403845</v>
       </c>
       <c r="T23" t="n">
-        <v>1253.715088676305</v>
+        <v>1192.631770403845</v>
       </c>
       <c r="U23" t="n">
-        <v>1253.715088676305</v>
+        <v>1192.631770403845</v>
       </c>
       <c r="V23" t="n">
-        <v>1253.715088676305</v>
+        <v>1192.631770403845</v>
       </c>
       <c r="W23" t="n">
-        <v>991.2460625490338</v>
+        <v>1192.631770403845</v>
       </c>
       <c r="X23" t="n">
-        <v>991.2460625490338</v>
+        <v>1192.631770403845</v>
       </c>
       <c r="Y23" t="n">
-        <v>991.2460625490338</v>
+        <v>892.7920675708772</v>
       </c>
     </row>
     <row r="24">
@@ -6054,10 +6054,10 @@
         <v>76.47205659080353</v>
       </c>
       <c r="F24" t="n">
-        <v>25.07430177352609</v>
+        <v>48.14380822310325</v>
       </c>
       <c r="G24" t="n">
-        <v>25.07430177352609</v>
+        <v>48.14380822310325</v>
       </c>
       <c r="H24" t="n">
         <v>25.07430177352609</v>
@@ -6069,22 +6069,22 @@
         <v>25.07430177352609</v>
       </c>
       <c r="K24" t="n">
-        <v>25.07430177352609</v>
+        <v>150.4318618313635</v>
       </c>
       <c r="L24" t="n">
-        <v>255.0374076418752</v>
+        <v>380.3949676997127</v>
       </c>
       <c r="M24" t="n">
-        <v>565.3318920892606</v>
+        <v>690.689452147098</v>
       </c>
       <c r="N24" t="n">
-        <v>875.6263765366459</v>
+        <v>1000.983936594483</v>
       </c>
       <c r="O24" t="n">
-        <v>1124.379790620608</v>
+        <v>1001.677052549624</v>
       </c>
       <c r="P24" t="n">
-        <v>1253.715088676305</v>
+        <v>1184.320530162975</v>
       </c>
       <c r="Q24" t="n">
         <v>1253.715088676305</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.07430177352609</v>
+        <v>357.1198774176918</v>
       </c>
       <c r="C25" t="n">
-        <v>25.07430177352609</v>
+        <v>278.4833236326284</v>
       </c>
       <c r="D25" t="n">
-        <v>25.07430177352609</v>
+        <v>218.6663133631362</v>
       </c>
       <c r="E25" t="n">
-        <v>25.07430177352609</v>
+        <v>161.0528489235866</v>
       </c>
       <c r="F25" t="n">
-        <v>25.07430177352609</v>
+        <v>104.4625305685197</v>
       </c>
       <c r="G25" t="n">
         <v>25.07430177352609</v>
@@ -6175,22 +6175,22 @@
         <v>669.0838118695465</v>
       </c>
       <c r="T25" t="n">
-        <v>587.4882133519753</v>
+        <v>669.0838118695465</v>
       </c>
       <c r="U25" t="n">
-        <v>388.5767017306866</v>
+        <v>669.0838118695465</v>
       </c>
       <c r="V25" t="n">
-        <v>224.1918426676432</v>
+        <v>669.0838118695465</v>
       </c>
       <c r="W25" t="n">
-        <v>25.07430177352609</v>
+        <v>669.0838118695465</v>
       </c>
       <c r="X25" t="n">
-        <v>25.07430177352609</v>
+        <v>578.9616631057746</v>
       </c>
       <c r="Y25" t="n">
-        <v>25.07430177352609</v>
+        <v>448.468713105088</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1119.796093868535</v>
+        <v>953.7523639543333</v>
       </c>
       <c r="C26" t="n">
-        <v>841.1332060709672</v>
+        <v>953.7523639543333</v>
       </c>
       <c r="D26" t="n">
-        <v>573.1671366070602</v>
+        <v>953.7523639543333</v>
       </c>
       <c r="E26" t="n">
-        <v>277.6785131516596</v>
+        <v>658.2637404989325</v>
       </c>
       <c r="F26" t="n">
-        <v>277.6785131516596</v>
+        <v>341.6690211362293</v>
       </c>
       <c r="G26" t="n">
-        <v>277.6785131516596</v>
+        <v>25.07430177352609</v>
       </c>
       <c r="H26" t="n">
         <v>25.07430177352609</v>
@@ -6236,13 +6236,13 @@
         <v>601.8136565938456</v>
       </c>
       <c r="N26" t="n">
-        <v>896.170845323986</v>
+        <v>807.6681788010849</v>
       </c>
       <c r="O26" t="n">
-        <v>1133.868461989535</v>
+        <v>996.9404925608511</v>
       </c>
       <c r="P26" t="n">
-        <v>1223.528517281586</v>
+        <v>1175.103214375803</v>
       </c>
       <c r="Q26" t="n">
         <v>1253.715088676305</v>
@@ -6254,22 +6254,22 @@
         <v>1253.715088676305</v>
       </c>
       <c r="T26" t="n">
-        <v>1253.715088676305</v>
+        <v>1194.515622155061</v>
       </c>
       <c r="U26" t="n">
-        <v>1253.715088676305</v>
+        <v>1194.515622155061</v>
       </c>
       <c r="V26" t="n">
-        <v>1253.715088676305</v>
+        <v>953.7523639543333</v>
       </c>
       <c r="W26" t="n">
-        <v>1253.715088676305</v>
+        <v>953.7523639543333</v>
       </c>
       <c r="X26" t="n">
-        <v>1253.715088676305</v>
+        <v>953.7523639543333</v>
       </c>
       <c r="Y26" t="n">
-        <v>1119.796093868535</v>
+        <v>953.7523639543333</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>364.5359398472191</v>
+        <v>288.1980631101065</v>
       </c>
       <c r="C27" t="n">
-        <v>280.3825397089356</v>
+        <v>204.044662971823</v>
       </c>
       <c r="D27" t="n">
-        <v>221.7477591905278</v>
+        <v>145.4098824534152</v>
       </c>
       <c r="E27" t="n">
-        <v>152.8099333279158</v>
+        <v>76.47205659080316</v>
       </c>
       <c r="F27" t="n">
-        <v>96.57500449764427</v>
+        <v>25.07430177352609</v>
       </c>
       <c r="G27" t="n">
-        <v>48.14380822310328</v>
+        <v>25.07430177352609</v>
       </c>
       <c r="H27" t="n">
         <v>25.07430177352609</v>
@@ -6309,46 +6309,46 @@
         <v>150.4318618313635</v>
       </c>
       <c r="L27" t="n">
-        <v>380.3949676997127</v>
+        <v>150.4318618313635</v>
       </c>
       <c r="M27" t="n">
-        <v>690.689452147098</v>
+        <v>442.6291540182768</v>
       </c>
       <c r="N27" t="n">
-        <v>1000.983936594483</v>
+        <v>752.9236384656622</v>
       </c>
       <c r="O27" t="n">
-        <v>1249.737350678446</v>
+        <v>1001.677052549624</v>
       </c>
       <c r="P27" t="n">
-        <v>1253.715088676305</v>
+        <v>1184.320530162975</v>
       </c>
       <c r="Q27" t="n">
         <v>1253.715088676305</v>
       </c>
       <c r="R27" t="n">
-        <v>1253.715088676305</v>
+        <v>1242.845188372034</v>
       </c>
       <c r="S27" t="n">
-        <v>1236.065349702659</v>
+        <v>1159.727472965546</v>
       </c>
       <c r="T27" t="n">
-        <v>1124.178384204268</v>
+        <v>1047.840507467156</v>
       </c>
       <c r="U27" t="n">
-        <v>986.2543950835009</v>
+        <v>909.9165183463882</v>
       </c>
       <c r="V27" t="n">
-        <v>841.4019159946016</v>
+        <v>765.064039257489</v>
       </c>
       <c r="W27" t="n">
-        <v>677.4641884092434</v>
+        <v>601.1263116721308</v>
       </c>
       <c r="X27" t="n">
-        <v>559.9123173465541</v>
+        <v>483.5744406094415</v>
       </c>
       <c r="Y27" t="n">
-        <v>442.4516477244437</v>
+        <v>366.113770987331</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.07430177352609</v>
+        <v>166.6810817424753</v>
       </c>
       <c r="C28" t="n">
-        <v>25.07430177352609</v>
+        <v>166.6810817424753</v>
       </c>
       <c r="D28" t="n">
-        <v>25.07430177352609</v>
+        <v>166.6810817424753</v>
       </c>
       <c r="E28" t="n">
-        <v>25.07430177352609</v>
+        <v>166.6810817424753</v>
       </c>
       <c r="F28" t="n">
-        <v>25.07430177352609</v>
+        <v>166.6810817424753</v>
       </c>
       <c r="G28" t="n">
-        <v>25.07430177352609</v>
+        <v>165.36155604814</v>
       </c>
       <c r="H28" t="n">
-        <v>25.07430177352609</v>
+        <v>91.79535437538794</v>
       </c>
       <c r="I28" t="n">
         <v>25.07430177352609</v>
@@ -6406,28 +6406,28 @@
         <v>669.0838118695461</v>
       </c>
       <c r="R28" t="n">
-        <v>669.0838118695461</v>
+        <v>580.299207298077</v>
       </c>
       <c r="S28" t="n">
-        <v>669.0838118695461</v>
+        <v>444.3194444843829</v>
       </c>
       <c r="T28" t="n">
-        <v>587.4882133519753</v>
+        <v>304.3710034976491</v>
       </c>
       <c r="U28" t="n">
-        <v>388.5767017306866</v>
+        <v>304.3710034976491</v>
       </c>
       <c r="V28" t="n">
-        <v>224.1918426676432</v>
+        <v>304.3710034976491</v>
       </c>
       <c r="W28" t="n">
-        <v>25.07430177352609</v>
+        <v>304.3710034976491</v>
       </c>
       <c r="X28" t="n">
-        <v>25.07430177352609</v>
+        <v>166.6810817424753</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.07430177352609</v>
+        <v>166.6810817424753</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>666.8554815093123</v>
+        <v>694.8910563917798</v>
       </c>
       <c r="C29" t="n">
-        <v>392.2293815233827</v>
+        <v>694.8910563917798</v>
       </c>
       <c r="D29" t="n">
-        <v>392.2293815233827</v>
+        <v>460.3114457920133</v>
       </c>
       <c r="E29" t="n">
-        <v>392.2293815233827</v>
+        <v>460.3114457920133</v>
       </c>
       <c r="F29" t="n">
-        <v>392.2293815233827</v>
+        <v>143.6619579568878</v>
       </c>
       <c r="G29" t="n">
-        <v>392.2293815233827</v>
+        <v>143.6619579568878</v>
       </c>
       <c r="H29" t="n">
         <v>143.6619579568878</v>
@@ -6464,19 +6464,19 @@
         <v>106.0257920504156</v>
       </c>
       <c r="K29" t="n">
-        <v>209.0407979613379</v>
+        <v>253.0348539384297</v>
       </c>
       <c r="L29" t="n">
-        <v>389.1166495459966</v>
+        <v>433.1107055230883</v>
       </c>
       <c r="M29" t="n">
-        <v>606.0922768089007</v>
+        <v>650.0863327859925</v>
       </c>
       <c r="N29" t="n">
-        <v>904.4059212732278</v>
+        <v>855.9408549932318</v>
       </c>
       <c r="O29" t="n">
-        <v>1053.600871415876</v>
+        <v>1097.594927392968</v>
       </c>
       <c r="P29" t="n">
         <v>1187.254982685019</v>
@@ -6497,16 +6497,16 @@
         <v>1269.823312719707</v>
       </c>
       <c r="V29" t="n">
-        <v>1033.096842330619</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="W29" t="n">
-        <v>774.6646040149864</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="X29" t="n">
-        <v>774.6646040149864</v>
+        <v>990.6939714131095</v>
       </c>
       <c r="Y29" t="n">
-        <v>666.8554815093123</v>
+        <v>694.8910563917798</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>340.6373774582559</v>
+        <v>340.6373774582561</v>
       </c>
       <c r="C30" t="n">
-        <v>260.5207651316109</v>
+        <v>260.5207651316111</v>
       </c>
       <c r="D30" t="n">
-        <v>205.9227724248417</v>
+        <v>205.9227724248419</v>
       </c>
       <c r="E30" t="n">
-        <v>141.0217343738682</v>
+        <v>141.0217343738684</v>
       </c>
       <c r="F30" t="n">
-        <v>88.82359335523526</v>
+        <v>88.82359335523552</v>
       </c>
       <c r="G30" t="n">
-        <v>44.42918489233278</v>
+        <v>44.4291848923328</v>
       </c>
       <c r="H30" t="n">
         <v>25.39646625439415</v>
@@ -6546,19 +6546,19 @@
         <v>150.7540263122316</v>
       </c>
       <c r="L30" t="n">
-        <v>150.7540263122316</v>
+        <v>380.7171321805807</v>
       </c>
       <c r="M30" t="n">
-        <v>465.0352962103591</v>
+        <v>694.9984020787083</v>
       </c>
       <c r="N30" t="n">
-        <v>769.0318625090649</v>
+        <v>838.4264210223942</v>
       </c>
       <c r="O30" t="n">
-        <v>1017.785276593027</v>
+        <v>1087.179835106356</v>
       </c>
       <c r="P30" t="n">
-        <v>1200.428754206378</v>
+        <v>1269.823312719707</v>
       </c>
       <c r="Q30" t="n">
         <v>1269.823312719707</v>
@@ -6579,13 +6579,13 @@
         <v>801.3562023590845</v>
       </c>
       <c r="W30" t="n">
-        <v>641.4552625853647</v>
+        <v>641.4552625853649</v>
       </c>
       <c r="X30" t="n">
-        <v>527.9401793343141</v>
+        <v>527.9401793343142</v>
       </c>
       <c r="Y30" t="n">
-        <v>414.5162975238419</v>
+        <v>414.5162975238421</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>249.9911606738105</v>
+        <v>99.99623222781904</v>
       </c>
       <c r="C31" t="n">
-        <v>249.9911606738105</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="D31" t="n">
-        <v>194.2109382159568</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="E31" t="n">
-        <v>140.6342615880458</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="F31" t="n">
-        <v>88.08073104461745</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="G31" t="n">
-        <v>88.08073104461745</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="H31" t="n">
-        <v>88.08073104461745</v>
+        <v>25.39646625439415</v>
       </c>
       <c r="I31" t="n">
         <v>25.39646625439415</v>
       </c>
       <c r="J31" t="n">
-        <v>25.43000019597594</v>
+        <v>25.43000019597592</v>
       </c>
       <c r="K31" t="n">
-        <v>95.84232554543975</v>
+        <v>95.84232554543972</v>
       </c>
       <c r="L31" t="n">
-        <v>215.6155728102406</v>
+        <v>215.6155728102405</v>
       </c>
       <c r="M31" t="n">
-        <v>347.2627332595506</v>
+        <v>347.2627332595505</v>
       </c>
       <c r="N31" t="n">
-        <v>483.4127061720748</v>
+        <v>483.4127061720746</v>
       </c>
       <c r="O31" t="n">
-        <v>600.2111050640619</v>
+        <v>600.2111050640617</v>
       </c>
       <c r="P31" t="n">
-        <v>689.9760009933943</v>
+        <v>689.9760009933941</v>
       </c>
       <c r="Q31" t="n">
-        <v>697.1347004313047</v>
+        <v>697.1347004313045</v>
       </c>
       <c r="R31" t="n">
-        <v>697.1347004313047</v>
+        <v>612.3868836714739</v>
       </c>
       <c r="S31" t="n">
-        <v>697.1347004313047</v>
+        <v>612.3868836714739</v>
       </c>
       <c r="T31" t="n">
-        <v>658.8401238210948</v>
+        <v>476.4752304963787</v>
       </c>
       <c r="U31" t="n">
-        <v>658.8401238210948</v>
+        <v>295.0769853102976</v>
       </c>
       <c r="V31" t="n">
-        <v>658.8401238210948</v>
+        <v>295.0769853102976</v>
       </c>
       <c r="W31" t="n">
-        <v>463.7593707386163</v>
+        <v>99.99623222781904</v>
       </c>
       <c r="X31" t="n">
-        <v>463.7593707386163</v>
+        <v>99.99623222781904</v>
       </c>
       <c r="Y31" t="n">
-        <v>337.3032085495682</v>
+        <v>99.99623222781904</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25.39646625439415</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="C32" t="n">
-        <v>25.39646625439415</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="D32" t="n">
-        <v>25.39646625439415</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="E32" t="n">
-        <v>25.39646625439415</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="F32" t="n">
-        <v>25.39646625439415</v>
+        <v>648.3194019182029</v>
       </c>
       <c r="G32" t="n">
-        <v>25.39646625439415</v>
+        <v>327.6569492112061</v>
       </c>
       <c r="H32" t="n">
-        <v>25.39646625439415</v>
+        <v>79.08952564471119</v>
       </c>
       <c r="I32" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="J32" t="n">
-        <v>106.0257920504155</v>
+        <v>106.0257920504156</v>
       </c>
       <c r="K32" t="n">
-        <v>209.0407979613378</v>
+        <v>209.0407979613379</v>
       </c>
       <c r="L32" t="n">
-        <v>389.1166495459964</v>
+        <v>389.1166495459966</v>
       </c>
       <c r="M32" t="n">
-        <v>606.0922768089006</v>
+        <v>606.0922768089007</v>
       </c>
       <c r="N32" t="n">
-        <v>855.9408549932319</v>
+        <v>855.9408549932321</v>
       </c>
       <c r="O32" t="n">
-        <v>1097.594927392968</v>
+        <v>1005.13580513588</v>
       </c>
       <c r="P32" t="n">
         <v>1187.254982685019</v>
@@ -6722,28 +6722,28 @@
         <v>1269.823312719707</v>
       </c>
       <c r="R32" t="n">
-        <v>1269.823312719707</v>
+        <v>1212.776782258886</v>
       </c>
       <c r="S32" t="n">
-        <v>1153.028346253739</v>
+        <v>1095.981815792918</v>
       </c>
       <c r="T32" t="n">
-        <v>1022.015420214149</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="U32" t="n">
-        <v>862.4673392819277</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="V32" t="n">
-        <v>625.7408688928391</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="W32" t="n">
-        <v>367.3086305772069</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="X32" t="n">
-        <v>88.1792892706091</v>
+        <v>964.9688897533284</v>
       </c>
       <c r="Y32" t="n">
-        <v>25.39646625439415</v>
+        <v>964.9688897533284</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>340.6373774582561</v>
+        <v>340.637377458256</v>
       </c>
       <c r="C33" t="n">
-        <v>260.5207651316111</v>
+        <v>260.520765131611</v>
       </c>
       <c r="D33" t="n">
         <v>205.9227724248418</v>
@@ -6765,37 +6765,37 @@
         <v>141.0217343738683</v>
       </c>
       <c r="F33" t="n">
-        <v>88.82359335523527</v>
+        <v>88.82359335523526</v>
       </c>
       <c r="G33" t="n">
-        <v>44.42918489233281</v>
+        <v>44.4291848923328</v>
       </c>
       <c r="H33" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="I33" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="J33" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="K33" t="n">
-        <v>150.7540263122316</v>
+        <v>150.7540263122315</v>
       </c>
       <c r="L33" t="n">
-        <v>209.863881226139</v>
+        <v>380.7171321805807</v>
       </c>
       <c r="M33" t="n">
-        <v>524.1451511242666</v>
+        <v>694.9984020787082</v>
       </c>
       <c r="N33" t="n">
-        <v>838.4264210223942</v>
+        <v>769.0318625090647</v>
       </c>
       <c r="O33" t="n">
-        <v>1087.179835106356</v>
+        <v>1017.785276593027</v>
       </c>
       <c r="P33" t="n">
-        <v>1269.823312719707</v>
+        <v>1200.428754206378</v>
       </c>
       <c r="Q33" t="n">
         <v>1269.823312719707</v>
@@ -6822,7 +6822,7 @@
         <v>527.9401793343137</v>
       </c>
       <c r="Y33" t="n">
-        <v>414.5162975238421</v>
+        <v>414.5162975238418</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="C34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="D34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="E34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="F34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="G34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="H34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="I34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="J34" t="n">
-        <v>25.43000019597591</v>
+        <v>25.43000019597592</v>
       </c>
       <c r="K34" t="n">
-        <v>95.84232554543969</v>
+        <v>95.84232554543972</v>
       </c>
       <c r="L34" t="n">
         <v>215.6155728102405</v>
@@ -6886,22 +6886,22 @@
         <v>697.1347004313045</v>
       </c>
       <c r="T34" t="n">
-        <v>697.1347004313045</v>
+        <v>561.2230472562093</v>
       </c>
       <c r="U34" t="n">
-        <v>502.2599766216543</v>
+        <v>366.3483234465591</v>
       </c>
       <c r="V34" t="n">
-        <v>341.9119053702495</v>
+        <v>220.4772193368727</v>
       </c>
       <c r="W34" t="n">
-        <v>146.8311522877709</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="X34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.39646625439415</v>
+        <v>25.39646625439414</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>279.9240616073054</v>
+        <v>334.5220543140746</v>
       </c>
       <c r="C36" t="n">
-        <v>199.8074492806604</v>
+        <v>254.4054419874296</v>
       </c>
       <c r="D36" t="n">
-        <v>199.8074492806604</v>
+        <v>199.8074492806603</v>
       </c>
       <c r="E36" t="n">
         <v>134.9064112296869</v>
       </c>
       <c r="F36" t="n">
-        <v>82.70827021105387</v>
+        <v>82.70827021105384</v>
       </c>
       <c r="G36" t="n">
-        <v>38.3138617481514</v>
+        <v>38.31386174815138</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7017,22 +7017,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>929.1280805240318</v>
       </c>
       <c r="U36" t="n">
-        <v>881.4585777853945</v>
+        <v>795.2408792149029</v>
       </c>
       <c r="V36" t="n">
-        <v>740.6428865081338</v>
+        <v>795.2408792149029</v>
       </c>
       <c r="W36" t="n">
-        <v>580.7419467344141</v>
+        <v>635.3399394411832</v>
       </c>
       <c r="X36" t="n">
-        <v>467.2268634833633</v>
+        <v>521.8248561901324</v>
       </c>
       <c r="Y36" t="n">
-        <v>353.8029816728914</v>
+        <v>408.4009743796606</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>338.4169323501417</v>
+        <v>75.06136556806642</v>
       </c>
       <c r="C37" t="n">
-        <v>338.4169323501417</v>
+        <v>75.06136556806642</v>
       </c>
       <c r="D37" t="n">
-        <v>332.9764699162442</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>279.3997932883331</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>226.8462627449047</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>151.4948217615496</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>81.96540790043606</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>19.31467705179449</v>
+        <v>19.3146770517945</v>
       </c>
       <c r="K37" t="n">
-        <v>89.72700240125828</v>
+        <v>89.7270024012583</v>
       </c>
       <c r="L37" t="n">
         <v>209.5002496660591</v>
@@ -7105,7 +7105,7 @@
         <v>341.1474101153691</v>
       </c>
       <c r="N37" t="n">
-        <v>477.2973830278932</v>
+        <v>477.2973830278933</v>
       </c>
       <c r="O37" t="n">
         <v>594.0957819198803</v>
@@ -7117,28 +7117,28 @@
         <v>691.0193772871231</v>
       </c>
       <c r="R37" t="n">
-        <v>606.2715605272925</v>
+        <v>691.0193772871231</v>
       </c>
       <c r="S37" t="n">
-        <v>474.3285855252369</v>
+        <v>691.0193772871231</v>
       </c>
       <c r="T37" t="n">
-        <v>338.4169323501417</v>
+        <v>690.5994860345334</v>
       </c>
       <c r="U37" t="n">
-        <v>338.4169323501417</v>
+        <v>690.5994860345334</v>
       </c>
       <c r="V37" t="n">
-        <v>338.4169323501417</v>
+        <v>530.2514147831284</v>
       </c>
       <c r="W37" t="n">
-        <v>338.4169323501417</v>
+        <v>335.1706617006498</v>
       </c>
       <c r="X37" t="n">
-        <v>338.4169323501417</v>
+        <v>201.5175277571145</v>
       </c>
       <c r="Y37" t="n">
-        <v>338.4169323501417</v>
+        <v>75.06136556806642</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>829.5617312050292</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>829.5617312050292</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>621.0999113206528</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>212.9997003215785</v>
+        <v>176.846649281644</v>
       </c>
       <c r="C39" t="n">
-        <v>55.43419415014719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>55.43419415014719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>55.43419415014719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>55.43419415014719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>55.43419415014719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>55.43419415014719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7254,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>807.5273340710008</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>622.2282625394625</v>
+        <v>797.4113066534431</v>
       </c>
       <c r="U39" t="n">
-        <v>622.2282625394625</v>
+        <v>586.075211499528</v>
       </c>
       <c r="V39" t="n">
-        <v>403.9636774174156</v>
+        <v>367.8106263774811</v>
       </c>
       <c r="W39" t="n">
-        <v>403.9636774174156</v>
+        <v>367.8106263774811</v>
       </c>
       <c r="X39" t="n">
-        <v>212.9997003215785</v>
+        <v>176.846649281644</v>
       </c>
       <c r="Y39" t="n">
-        <v>212.9997003215785</v>
+        <v>176.846649281644</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.11557255124805</v>
+        <v>171.3298029284239</v>
       </c>
       <c r="C40" t="n">
-        <v>69.11557255124805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>69.11557255124805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>69.11557255124805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>69.11557255124805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>69.11557255124805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
         <v>19.28114311021272</v>
@@ -7336,7 +7336,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>63.1467295177385</v>
+        <v>63.14672951773851</v>
       </c>
       <c r="M40" t="n">
         <v>118.8862291097735</v>
@@ -7348,34 +7348,34 @@
         <v>220.0192791997347</v>
       </c>
       <c r="P40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="Q40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="R40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="S40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="T40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="U40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="V40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="W40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="X40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
       <c r="Y40" t="n">
-        <v>233.876514271792</v>
+        <v>233.8765142717921</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>237.7563513328716</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="C41" t="n">
-        <v>237.7563513328716</v>
+        <v>237.7563513328714</v>
       </c>
       <c r="D41" t="n">
-        <v>237.7563513328716</v>
+        <v>160.5426752699748</v>
       </c>
       <c r="E41" t="n">
-        <v>160.5426752699749</v>
+        <v>83.32899920707808</v>
       </c>
       <c r="F41" t="n">
-        <v>83.32899920707814</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="G41" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H41" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I41" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J41" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K41" t="n">
-        <v>81.7924470534265</v>
+        <v>81.79244705342644</v>
       </c>
       <c r="L41" t="n">
-        <v>157.4695709626716</v>
+        <v>157.4695709626715</v>
       </c>
       <c r="M41" t="n">
-        <v>230.0890332998259</v>
+        <v>233.1466948719165</v>
       </c>
       <c r="N41" t="n">
-        <v>230.0890332998259</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="O41" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="P41" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="Q41" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="R41" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="S41" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="T41" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="U41" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="V41" t="n">
-        <v>237.7563513328716</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="W41" t="n">
-        <v>237.7563513328716</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="X41" t="n">
-        <v>237.7563513328716</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="Y41" t="n">
-        <v>237.7563513328716</v>
+        <v>305.7661572090708</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>83.32899920707814</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="C42" t="n">
-        <v>6.115323144181421</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="D42" t="n">
-        <v>6.115323144181421</v>
+        <v>160.5426752699748</v>
       </c>
       <c r="E42" t="n">
-        <v>6.115323144181421</v>
+        <v>83.32899920707808</v>
       </c>
       <c r="F42" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="G42" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H42" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I42" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J42" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K42" t="n">
-        <v>81.7924470534265</v>
+        <v>81.79244705342644</v>
       </c>
       <c r="L42" t="n">
-        <v>157.4695709626716</v>
+        <v>157.4695709626715</v>
       </c>
       <c r="M42" t="n">
-        <v>233.1466948719167</v>
+        <v>157.4695709626715</v>
       </c>
       <c r="N42" t="n">
-        <v>233.1466948719167</v>
+        <v>230.0890332998258</v>
       </c>
       <c r="O42" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="P42" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="Q42" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="R42" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="S42" t="n">
-        <v>228.5524811461743</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="T42" t="n">
-        <v>151.3388050832776</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="U42" t="n">
-        <v>151.3388050832776</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="V42" t="n">
-        <v>151.3388050832776</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="W42" t="n">
-        <v>151.3388050832776</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="X42" t="n">
-        <v>151.3388050832776</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="Y42" t="n">
-        <v>83.32899920707814</v>
+        <v>228.5524811461741</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6.115323144181421</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="C43" t="n">
-        <v>6.115323144181421</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="D43" t="n">
-        <v>6.115323144181421</v>
+        <v>119.888693549132</v>
       </c>
       <c r="E43" t="n">
-        <v>6.115323144181421</v>
+        <v>42.67501748623533</v>
       </c>
       <c r="F43" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="G43" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H43" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I43" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J43" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K43" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="L43" t="n">
         <v>45.25924461296079</v>
@@ -7591,28 +7591,28 @@
         <v>197.1023696120287</v>
       </c>
       <c r="R43" t="n">
-        <v>119.8886935491319</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="S43" t="n">
-        <v>83.32899920707814</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="T43" t="n">
-        <v>83.32899920707814</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="U43" t="n">
-        <v>83.32899920707814</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="V43" t="n">
-        <v>83.32899920707814</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="W43" t="n">
-        <v>83.32899920707814</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="X43" t="n">
-        <v>6.115323144181421</v>
+        <v>197.1023696120287</v>
       </c>
       <c r="Y43" t="n">
-        <v>6.115323144181421</v>
+        <v>197.1023696120287</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>218.4608657779472</v>
+        <v>74.1251290203808</v>
       </c>
       <c r="C44" t="n">
-        <v>141.2471897150505</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="D44" t="n">
-        <v>141.2471897150505</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="E44" t="n">
-        <v>141.2471897150505</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="F44" t="n">
-        <v>141.2471897150505</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="G44" t="n">
-        <v>141.2471897150505</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H44" t="n">
-        <v>95.3989884541615</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I44" t="n">
-        <v>18.18531239126477</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J44" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K44" t="n">
-        <v>6.115323144181421</v>
+        <v>81.79244705342644</v>
       </c>
       <c r="L44" t="n">
-        <v>6.115323144181421</v>
+        <v>81.79244705342644</v>
       </c>
       <c r="M44" t="n">
-        <v>78.73478548133575</v>
+        <v>154.4119093905807</v>
       </c>
       <c r="N44" t="n">
-        <v>154.4119093905808</v>
+        <v>230.0890332998258</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0890332998259</v>
+        <v>230.0890332998258</v>
       </c>
       <c r="P44" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="Q44" t="n">
-        <v>295.674541840844</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="R44" t="n">
-        <v>295.674541840844</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="S44" t="n">
-        <v>218.4608657779472</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="T44" t="n">
-        <v>218.4608657779472</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="U44" t="n">
-        <v>218.4608657779472</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="V44" t="n">
-        <v>218.4608657779472</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="W44" t="n">
-        <v>218.4608657779472</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="X44" t="n">
-        <v>218.4608657779472</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="Y44" t="n">
-        <v>218.4608657779472</v>
+        <v>151.3388050832775</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>160.5426752699749</v>
+        <v>151.3388050832775</v>
       </c>
       <c r="C45" t="n">
-        <v>160.5426752699749</v>
+        <v>151.3388050832775</v>
       </c>
       <c r="D45" t="n">
-        <v>160.5426752699749</v>
+        <v>151.3388050832775</v>
       </c>
       <c r="E45" t="n">
-        <v>160.5426752699749</v>
+        <v>151.3388050832775</v>
       </c>
       <c r="F45" t="n">
-        <v>83.32899920707814</v>
+        <v>83.32899920707808</v>
       </c>
       <c r="G45" t="n">
-        <v>83.32899920707814</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="H45" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="I45" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J45" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K45" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="L45" t="n">
-        <v>6.115323144181421</v>
+        <v>81.79244705342644</v>
       </c>
       <c r="M45" t="n">
-        <v>81.7924470534265</v>
+        <v>154.4119093905807</v>
       </c>
       <c r="N45" t="n">
-        <v>157.4695709626716</v>
+        <v>230.0890332998258</v>
       </c>
       <c r="O45" t="n">
-        <v>233.1466948719167</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="P45" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="Q45" t="n">
-        <v>305.766157209071</v>
+        <v>305.7661572090708</v>
       </c>
       <c r="R45" t="n">
-        <v>228.5524811461743</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="S45" t="n">
-        <v>228.5524811461743</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="T45" t="n">
-        <v>228.5524811461743</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="U45" t="n">
-        <v>228.5524811461743</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="V45" t="n">
-        <v>228.5524811461743</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="W45" t="n">
-        <v>228.5524811461743</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="X45" t="n">
-        <v>228.5524811461743</v>
+        <v>228.5524811461741</v>
       </c>
       <c r="Y45" t="n">
-        <v>160.5426752699749</v>
+        <v>151.3388050832775</v>
       </c>
     </row>
     <row r="46">
@@ -7792,25 +7792,25 @@
         <v>140.6476136344522</v>
       </c>
       <c r="F46" t="n">
-        <v>63.43393757155545</v>
+        <v>140.6476136344522</v>
       </c>
       <c r="G46" t="n">
-        <v>6.115323144181421</v>
+        <v>63.4339375715555</v>
       </c>
       <c r="H46" t="n">
-        <v>6.115323144181421</v>
+        <v>63.4339375715555</v>
       </c>
       <c r="I46" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="J46" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="K46" t="n">
-        <v>6.115323144181421</v>
+        <v>6.115323144181416</v>
       </c>
       <c r="L46" t="n">
-        <v>33.4294481518944</v>
+        <v>33.42944815189439</v>
       </c>
       <c r="M46" t="n">
         <v>72.61748634411657</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>296.5313903472483</v>
+        <v>296.5313903472482</v>
       </c>
       <c r="L11" t="n">
-        <v>309.1194072297391</v>
+        <v>309.119407229739</v>
       </c>
       <c r="M11" t="n">
-        <v>306.7877725295405</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>306.5397507239545</v>
+        <v>306.5397507239544</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>307.6745350575372</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,22 +8772,22 @@
         <v>214.2829782766267</v>
       </c>
       <c r="L12" t="n">
-        <v>214.9959190821419</v>
+        <v>141.8118583897984</v>
       </c>
       <c r="M12" t="n">
-        <v>215.4870261817702</v>
+        <v>218.575573224286</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>219.0377837467121</v>
       </c>
       <c r="P12" t="n">
-        <v>210.415946716598</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>293.4428433047324</v>
+        <v>296.5313903472482</v>
       </c>
       <c r="L14" t="n">
-        <v>312.207954272255</v>
+        <v>309.119407229739</v>
       </c>
       <c r="M14" t="n">
-        <v>306.7877725295405</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>306.5397507239545</v>
+        <v>306.5397507239544</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>307.6745350575372</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>214.2829782766267</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>145.3915125319426</v>
       </c>
       <c r="N15" t="n">
-        <v>134.5991906932576</v>
+        <v>207.783251385601</v>
       </c>
       <c r="O15" t="n">
-        <v>219.0377837467122</v>
+        <v>219.0377837467121</v>
       </c>
       <c r="P15" t="n">
-        <v>210.415946716598</v>
+        <v>210.4159467165979</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9489,13 +9489,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9729,13 +9729,13 @@
         <v>444.7704842524095</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>143.2963615708496</v>
       </c>
       <c r="P24" t="n">
-        <v>264.6161226221043</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>455.5628060910944</v>
+        <v>437.2828139087995</v>
       </c>
       <c r="N27" t="n">
         <v>444.7704842524095</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>137.9923245838847</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,13 +10194,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>459.5898621019451</v>
       </c>
       <c r="N30" t="n">
-        <v>438.4089507688948</v>
+        <v>276.2184988951372</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>198.2613039353363</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>459.5898621019451</v>
       </c>
       <c r="N33" t="n">
-        <v>448.7975402632601</v>
+        <v>206.1229852453096</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10677,13 +10677,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M39" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,19 +11060,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>296.5313903472483</v>
+        <v>296.5313903472482</v>
       </c>
       <c r="L41" t="n">
-        <v>312.207954272255</v>
+        <v>312.2079542722549</v>
       </c>
       <c r="M41" t="n">
-        <v>303.6992254870246</v>
+        <v>306.7877725295405</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>302.7660558563427</v>
       </c>
       <c r="O41" t="n">
-        <v>306.5397507239545</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>231.2329957552695</v>
@@ -11145,13 +11145,13 @@
         <v>214.9959190821419</v>
       </c>
       <c r="M42" t="n">
-        <v>218.5755732242861</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>204.6947043430851</v>
       </c>
       <c r="O42" t="n">
-        <v>215.9492367041963</v>
+        <v>219.0377837467121</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>296.5313903472482</v>
       </c>
       <c r="L44" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>303.6992254870246</v>
+        <v>303.6992254870245</v>
       </c>
       <c r="N44" t="n">
-        <v>305.8546028988587</v>
+        <v>305.8546028988586</v>
       </c>
       <c r="O44" t="n">
-        <v>306.5397507239545</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>307.6745350575373</v>
+        <v>307.6745350575372</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,19 +11379,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>214.9959190821419</v>
       </c>
       <c r="M45" t="n">
-        <v>218.5755732242861</v>
+        <v>215.4870261817701</v>
       </c>
       <c r="N45" t="n">
-        <v>207.7832513856011</v>
+        <v>207.783251385601</v>
       </c>
       <c r="O45" t="n">
-        <v>219.0377837467122</v>
+        <v>219.0377837467121</v>
       </c>
       <c r="P45" t="n">
-        <v>207.3273996740821</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23279,7 +23279,7 @@
         <v>205.7065310464196</v>
       </c>
       <c r="J11" t="n">
-        <v>7.179930830626222</v>
+        <v>7.179930830626217</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,16 +23300,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.221340690558509</v>
+        <v>5.221340690558504</v>
       </c>
       <c r="R11" t="n">
         <v>145.0997594171634</v>
       </c>
       <c r="S11" t="n">
-        <v>204.2507110622591</v>
+        <v>204.250711062259</v>
       </c>
       <c r="T11" t="n">
-        <v>218.3264910401451</v>
+        <v>150.9967832227077</v>
       </c>
       <c r="U11" t="n">
         <v>170.1347550815825</v>
@@ -23321,7 +23321,7 @@
         <v>268.030070891159</v>
       </c>
       <c r="X11" t="n">
-        <v>297.6320343370453</v>
+        <v>364.9617421544827</v>
       </c>
       <c r="Y11" t="n">
         <v>381.4685801320673</v>
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>161.7638251258811</v>
+        <v>161.763825125881</v>
       </c>
       <c r="C12" t="n">
-        <v>167.9391404643295</v>
+        <v>167.9391404643294</v>
       </c>
       <c r="D12" t="n">
-        <v>142.6757070406525</v>
+        <v>142.6757070406524</v>
       </c>
       <c r="E12" t="n">
-        <v>152.8757219314147</v>
+        <v>152.8757219314146</v>
       </c>
       <c r="F12" t="n">
-        <v>140.2998538693976</v>
+        <v>63.85831456712987</v>
       </c>
       <c r="G12" t="n">
-        <v>132.5741586392244</v>
+        <v>56.13261933695662</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4660857125102</v>
+        <v>31.02454641024246</v>
       </c>
       <c r="I12" t="n">
-        <v>84.62727432742878</v>
+        <v>17.2975665099914</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,25 +23385,25 @@
         <v>95.38847562865683</v>
       </c>
       <c r="S12" t="n">
-        <v>90.47227327758378</v>
+        <v>166.9138125798515</v>
       </c>
       <c r="T12" t="n">
-        <v>118.9538308685676</v>
+        <v>195.3953701708353</v>
       </c>
       <c r="U12" t="n">
         <v>221.1720235569885</v>
       </c>
       <c r="V12" t="n">
-        <v>151.5896893231712</v>
+        <v>228.031228625439</v>
       </c>
       <c r="W12" t="n">
-        <v>179.5959168194959</v>
+        <v>246.9256246369333</v>
       </c>
       <c r="X12" t="n">
         <v>201.0036266794912</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.9133372533181</v>
+        <v>200.913337253318</v>
       </c>
     </row>
     <row r="13">
@@ -23419,16 +23419,16 @@
         <v>162.4774625746415</v>
       </c>
       <c r="D13" t="n">
-        <v>143.8461144942261</v>
+        <v>143.846114494226</v>
       </c>
       <c r="E13" t="n">
         <v>141.6646041225829</v>
       </c>
       <c r="F13" t="n">
-        <v>140.651689498945</v>
+        <v>140.6516894989449</v>
       </c>
       <c r="G13" t="n">
-        <v>163.2216208344725</v>
+        <v>163.2216208344724</v>
       </c>
       <c r="H13" t="n">
         <v>157.4578139834533</v>
@@ -23440,7 +23440,7 @@
         <v>88.58982159268648</v>
       </c>
       <c r="K13" t="n">
-        <v>17.50013330189656</v>
+        <v>17.50013330189655</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>81.39268472770809</v>
       </c>
       <c r="R13" t="n">
-        <v>96.08249355091544</v>
+        <v>96.08249355091547</v>
       </c>
       <c r="S13" t="n">
         <v>142.8057002107182</v>
       </c>
       <c r="T13" t="n">
-        <v>222.1673845411457</v>
+        <v>222.1673845411456</v>
       </c>
       <c r="U13" t="n">
         <v>281.5496708325046</v>
@@ -23479,7 +23479,7 @@
         <v>281.7536398126047</v>
       </c>
       <c r="X13" t="n">
-        <v>220.9402968650509</v>
+        <v>220.9402968650508</v>
       </c>
       <c r="Y13" t="n">
         <v>213.8152948281085</v>
@@ -23504,16 +23504,16 @@
         <v>369.2081421271851</v>
       </c>
       <c r="F14" t="n">
-        <v>326.8241099791973</v>
+        <v>394.1538177966348</v>
       </c>
       <c r="G14" t="n">
-        <v>326.1389702677906</v>
+        <v>402.5805095700584</v>
       </c>
       <c r="H14" t="n">
-        <v>250.3110348684227</v>
+        <v>326.7525741706905</v>
       </c>
       <c r="I14" t="n">
-        <v>121.3121223230615</v>
+        <v>197.7536616253292</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>137.146889996073</v>
       </c>
       <c r="S14" t="n">
-        <v>196.2978416411687</v>
+        <v>128.9681338237313</v>
       </c>
       <c r="T14" t="n">
-        <v>210.3736216190547</v>
+        <v>133.932082316787</v>
       </c>
       <c r="U14" t="n">
-        <v>238.6234249627599</v>
+        <v>162.1818856604921</v>
       </c>
       <c r="V14" t="n">
-        <v>315.0300305250582</v>
+        <v>238.5884912227905</v>
       </c>
       <c r="W14" t="n">
         <v>336.5187407723363</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>153.8109557047907</v>
+        <v>153.8109557047906</v>
       </c>
       <c r="C15" t="n">
-        <v>159.9862710432391</v>
+        <v>159.986271043239</v>
       </c>
       <c r="D15" t="n">
-        <v>58.28129831729436</v>
+        <v>134.7228376195621</v>
       </c>
       <c r="E15" t="n">
-        <v>144.9228525103243</v>
+        <v>144.9228525103242</v>
       </c>
       <c r="F15" t="n">
-        <v>55.90544514603948</v>
+        <v>132.3469844483072</v>
       </c>
       <c r="G15" t="n">
-        <v>48.17974991586622</v>
+        <v>124.621289218134</v>
       </c>
       <c r="H15" t="n">
-        <v>99.51321629141981</v>
+        <v>99.51321629141978</v>
       </c>
       <c r="I15" t="n">
-        <v>9.344697088900986</v>
+        <v>76.6744049063384</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>87.43560620756648</v>
+        <v>10.99406690529875</v>
       </c>
       <c r="S15" t="n">
-        <v>158.9609431587612</v>
+        <v>82.51940385649343</v>
       </c>
       <c r="T15" t="n">
-        <v>187.442500749745</v>
+        <v>120.1127929323075</v>
       </c>
       <c r="U15" t="n">
-        <v>213.2191541358982</v>
+        <v>136.7776148336304</v>
       </c>
       <c r="V15" t="n">
         <v>220.0783592043486</v>
       </c>
       <c r="W15" t="n">
-        <v>238.972755215843</v>
+        <v>238.9727552158429</v>
       </c>
       <c r="X15" t="n">
         <v>193.0507572584008</v>
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.1097522368607</v>
+        <v>167.1097522368606</v>
       </c>
       <c r="C16" t="n">
-        <v>154.5245931535512</v>
+        <v>154.5245931535511</v>
       </c>
       <c r="D16" t="n">
         <v>135.8932450731357</v>
@@ -23662,22 +23662,22 @@
         <v>133.7117347014925</v>
       </c>
       <c r="F16" t="n">
-        <v>132.6988200778546</v>
+        <v>132.6988200778545</v>
       </c>
       <c r="G16" t="n">
-        <v>78.82721211111436</v>
+        <v>155.2687514133821</v>
       </c>
       <c r="H16" t="n">
         <v>73.06340526009518</v>
       </c>
       <c r="I16" t="n">
-        <v>102.7463640209789</v>
+        <v>66.28670767991389</v>
       </c>
       <c r="J16" t="n">
-        <v>80.63695217159612</v>
+        <v>40.65506921039308</v>
       </c>
       <c r="K16" t="n">
-        <v>9.547263880806202</v>
+        <v>9.547263880806169</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.43981530661773</v>
+        <v>73.4398153066177</v>
       </c>
       <c r="R16" t="n">
         <v>164.5711634320928</v>
@@ -23704,13 +23704,13 @@
         <v>211.2943700918956</v>
       </c>
       <c r="T16" t="n">
-        <v>215.2233614832049</v>
+        <v>215.2233614832048</v>
       </c>
       <c r="U16" t="n">
         <v>273.5968014114142</v>
       </c>
       <c r="V16" t="n">
-        <v>239.4154153787514</v>
+        <v>239.4154153787513</v>
       </c>
       <c r="W16" t="n">
         <v>273.8007703915143</v>
@@ -23719,7 +23719,7 @@
         <v>212.9874274439605</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.8624254070182</v>
+        <v>205.8624254070181</v>
       </c>
     </row>
     <row r="17">
@@ -23735,10 +23735,10 @@
         <v>352.5506638259309</v>
       </c>
       <c r="D17" t="n">
-        <v>341.9608136756063</v>
+        <v>129.6754280321643</v>
       </c>
       <c r="E17" t="n">
-        <v>354.6764181090722</v>
+        <v>128.1938532495261</v>
       </c>
       <c r="F17" t="n">
         <v>153.1395289189757</v>
@@ -23747,10 +23747,10 @@
         <v>161.5662206923993</v>
       </c>
       <c r="H17" t="n">
-        <v>85.73828529303142</v>
+        <v>326.7525741706905</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>197.7536616253292</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23808,19 +23808,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>153.8109557047906</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>134.7228376195621</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>144.9228525103243</v>
+        <v>123.6794326945217</v>
       </c>
       <c r="F18" t="n">
-        <v>76.04681347297779</v>
+        <v>132.3469844483072</v>
       </c>
       <c r="G18" t="n">
         <v>124.621289218134</v>
@@ -23859,25 +23859,25 @@
         <v>87.43560620756645</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>158.9609431587611</v>
       </c>
       <c r="T18" t="n">
-        <v>187.4425007497449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>213.2191541358981</v>
       </c>
       <c r="V18" t="n">
         <v>220.0783592043486</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9727552158429</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>193.0507572584008</v>
       </c>
       <c r="Y18" t="n">
-        <v>192.9604678322277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>167.1097522368606</v>
+        <v>116.9730376533038</v>
       </c>
       <c r="C19" t="n">
-        <v>154.5245931535512</v>
+        <v>154.5245931535511</v>
       </c>
       <c r="D19" t="n">
         <v>135.8932450731357</v>
@@ -23899,7 +23899,7 @@
         <v>133.7117347014925</v>
       </c>
       <c r="F19" t="n">
-        <v>132.6988200778546</v>
+        <v>132.6988200778545</v>
       </c>
       <c r="G19" t="n">
         <v>155.2687514133821</v>
@@ -23908,13 +23908,13 @@
         <v>149.5049445623629</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7282469821816</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>80.63695217159609</v>
       </c>
       <c r="K19" t="n">
-        <v>9.54726388080617</v>
+        <v>9.547263880806169</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>273.5968014114142</v>
       </c>
       <c r="V19" t="n">
-        <v>46.55045381301292</v>
+        <v>239.4154153787513</v>
       </c>
       <c r="W19" t="n">
         <v>273.8007703915143</v>
@@ -23972,13 +23972,13 @@
         <v>352.5506638259309</v>
       </c>
       <c r="D20" t="n">
-        <v>100.9465247979472</v>
+        <v>341.9608136756063</v>
       </c>
       <c r="E20" t="n">
-        <v>369.2081421271851</v>
+        <v>128.1938532495261</v>
       </c>
       <c r="F20" t="n">
-        <v>394.1538177966348</v>
+        <v>153.1395289189757</v>
       </c>
       <c r="G20" t="n">
         <v>402.5805095700584</v>
@@ -24023,16 +24023,16 @@
         <v>210.3736216190547</v>
       </c>
       <c r="U20" t="n">
-        <v>26.33803931931783</v>
+        <v>238.6234249627598</v>
       </c>
       <c r="V20" t="n">
-        <v>74.01574164739918</v>
+        <v>315.0300305250582</v>
       </c>
       <c r="W20" t="n">
-        <v>95.50445189467729</v>
+        <v>124.2333551288943</v>
       </c>
       <c r="X20" t="n">
-        <v>357.0088727333924</v>
+        <v>115.9945838557333</v>
       </c>
       <c r="Y20" t="n">
         <v>373.5157107109769</v>
@@ -24045,16 +24045,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>153.8109557047907</v>
+        <v>153.8109557047906</v>
       </c>
       <c r="C21" t="n">
-        <v>159.9862710432391</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>134.7228376195621</v>
       </c>
       <c r="E21" t="n">
-        <v>144.9228525103243</v>
+        <v>144.9228525103242</v>
       </c>
       <c r="F21" t="n">
         <v>132.3469844483072</v>
@@ -24096,16 +24096,16 @@
         <v>87.43560620756645</v>
       </c>
       <c r="S21" t="n">
-        <v>158.9609431587612</v>
+        <v>158.9609431587611</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>187.4425007497449</v>
       </c>
       <c r="U21" t="n">
         <v>213.2191541358981</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>69.72035827763978</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24114,7 +24114,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>97.17658798414567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>167.1097522368606</v>
       </c>
       <c r="C22" t="n">
-        <v>128.7693838246734</v>
+        <v>154.5245931535511</v>
       </c>
       <c r="D22" t="n">
         <v>135.8932450731357</v>
@@ -24136,7 +24136,7 @@
         <v>133.7117347014925</v>
       </c>
       <c r="F22" t="n">
-        <v>132.6988200778546</v>
+        <v>132.6988200778545</v>
       </c>
       <c r="G22" t="n">
         <v>155.2687514133821</v>
@@ -24151,7 +24151,7 @@
         <v>80.63695217159609</v>
       </c>
       <c r="K22" t="n">
-        <v>9.54726388080617</v>
+        <v>9.547263880806169</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>211.2943700918956</v>
       </c>
       <c r="T22" t="n">
-        <v>215.2233614832048</v>
+        <v>22.35839991746639</v>
       </c>
       <c r="U22" t="n">
         <v>273.5968014114142</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>293.3372088120655</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>275.8762589195925</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2864087692679</v>
+        <v>13.01180161103204</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F23" t="n">
         <v>4.050640721220248</v>
@@ -24221,10 +24221,10 @@
         <v>325.90610466372</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I23" t="n">
-        <v>20.60989220551312</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>119.6234367348303</v>
@@ -24266,13 +24266,13 @@
         <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X23" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.8413058046385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24294,13 +24294,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>4.788802272864132</v>
+        <v>27.62761365794552</v>
       </c>
       <c r="G24" t="n">
         <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>72.8305396560245</v>
@@ -24415,22 +24415,22 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>57.769314044471</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>47.09209526148796</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24443,22 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>275.8762589195925</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>4.050640721220248</v>
       </c>
       <c r="G26" t="n">
-        <v>325.90610466372</v>
+        <v>12.47733249464386</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
         <v>121.0792567189909</v>
@@ -24494,13 +24494,13 @@
         <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>75.09174485668478</v>
       </c>
       <c r="U26" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>259.8443358659979</v>
@@ -24509,7 +24509,7 @@
         <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>164.261500944947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24531,13 +24531,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.78880227286453</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.94688431179559</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508141</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122808</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>64.81329666851347</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>56.0244151715162</v>
       </c>
       <c r="G28" t="n">
-        <v>78.59434650704371</v>
+        <v>77.2880160696518</v>
       </c>
       <c r="H28" t="n">
-        <v>72.83053965602453</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.05384207584324</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>3.962547265257726</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575444</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.76931404447134</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>129.1880205006797</v>
@@ -24680,22 +24680,22 @@
         <v>289.3407888785434</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>271.8798389860704</v>
       </c>
       <c r="D29" t="n">
-        <v>261.2899888357458</v>
+        <v>29.056174341977</v>
       </c>
       <c r="E29" t="n">
         <v>288.5373172873246</v>
       </c>
       <c r="F29" t="n">
-        <v>313.4829929567742</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>321.9096847301979</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>246.08174933083</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>56.47606515621247</v>
+        <v>56.47606515621248</v>
       </c>
       <c r="S29" t="n">
         <v>115.6270168013081</v>
@@ -24737,16 +24737,16 @@
         <v>157.9526001228993</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>234.3592056851977</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>255.8479159324758</v>
       </c>
       <c r="X29" t="n">
-        <v>276.3380478935318</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>186.1138545904991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>86.4389273970001</v>
       </c>
       <c r="C31" t="n">
-        <v>73.85376831369062</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>55.22242023327516</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>53.04090986163197</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>52.02799523799405</v>
       </c>
       <c r="G31" t="n">
-        <v>74.59792657352155</v>
+        <v>74.59792657352156</v>
       </c>
       <c r="H31" t="n">
-        <v>68.83411972250236</v>
+        <v>68.83411972250238</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.05742214232109</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>83.90033859223227</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>130.6235452520351</v>
       </c>
       <c r="T31" t="n">
-        <v>96.64090579923649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>192.9259765715537</v>
+        <v>13.34171383733346</v>
       </c>
       <c r="V31" t="n">
         <v>158.7445905388908</v>
@@ -24904,7 +24904,7 @@
         <v>132.3166026041</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>125.1916005671576</v>
       </c>
     </row>
     <row r="32">
@@ -24926,16 +24926,16 @@
         <v>288.5373172873246</v>
       </c>
       <c r="F32" t="n">
-        <v>313.4829929567742</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>321.9096847301979</v>
+        <v>4.453856550271098</v>
       </c>
       <c r="H32" t="n">
-        <v>246.08174933083</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>117.0828367854687</v>
+        <v>63.92670798905484</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>56.4760651562125</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>157.9526001228993</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>234.3592056851977</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>255.8479159324758</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>276.3380478935318</v>
       </c>
       <c r="Y32" t="n">
-        <v>230.6898910850636</v>
+        <v>292.8448858711164</v>
       </c>
     </row>
     <row r="33">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.43892739700011</v>
+        <v>86.4389273970001</v>
       </c>
       <c r="C34" t="n">
-        <v>73.85376831369065</v>
+        <v>73.85376831369064</v>
       </c>
       <c r="D34" t="n">
-        <v>55.22242023327517</v>
+        <v>55.22242023327516</v>
       </c>
       <c r="E34" t="n">
-        <v>53.04090986163199</v>
+        <v>53.04090986163197</v>
       </c>
       <c r="F34" t="n">
-        <v>52.02799523799406</v>
+        <v>52.02799523799405</v>
       </c>
       <c r="G34" t="n">
-        <v>74.59792657352158</v>
+        <v>74.59792657352156</v>
       </c>
       <c r="H34" t="n">
-        <v>68.83411972250239</v>
+        <v>68.83411972250238</v>
       </c>
       <c r="I34" t="n">
-        <v>62.0574221423211</v>
+        <v>62.05742214232109</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,25 +25120,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>83.9003385922323</v>
+        <v>83.90033859223229</v>
       </c>
       <c r="S34" t="n">
         <v>130.6235452520351</v>
       </c>
       <c r="T34" t="n">
-        <v>134.5525366433443</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>14.33219747030131</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>12.09626343105698</v>
+        <v>132.3166026041</v>
       </c>
       <c r="Y34" t="n">
         <v>125.1916005671576</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>289.3407888785434</v>
+        <v>48.32650000088432</v>
       </c>
       <c r="C35" t="n">
-        <v>271.8798389860704</v>
+        <v>30.8655501084113</v>
       </c>
       <c r="D35" t="n">
-        <v>49.00460319230376</v>
+        <v>20.2756999580867</v>
       </c>
       <c r="E35" t="n">
-        <v>47.52302840966553</v>
+        <v>76.25193164388247</v>
       </c>
       <c r="F35" t="n">
         <v>313.4829929567742</v>
       </c>
       <c r="G35" t="n">
-        <v>80.8953958525388</v>
+        <v>321.9096847301979</v>
       </c>
       <c r="H35" t="n">
-        <v>5.067460453170895</v>
+        <v>246.08174933083</v>
       </c>
       <c r="I35" t="n">
         <v>117.0828367854687</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>56.4760651562125</v>
+        <v>56.47606515621248</v>
       </c>
       <c r="S35" t="n">
-        <v>115.6270168013082</v>
+        <v>115.6270168013081</v>
       </c>
       <c r="T35" t="n">
         <v>129.7027967791942</v>
@@ -25236,7 +25236,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>54.05201277970157</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25278,19 +25278,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>6.76478136770595</v>
+        <v>6.764781367705936</v>
       </c>
       <c r="S36" t="n">
-        <v>78.29011831890064</v>
+        <v>78.29011831890062</v>
       </c>
       <c r="T36" t="n">
-        <v>106.7716759098844</v>
+        <v>72.19189167314605</v>
       </c>
       <c r="U36" t="n">
-        <v>50.77573734804834</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>139.4075343644881</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.43892739700011</v>
+        <v>86.4389273970001</v>
       </c>
       <c r="C37" t="n">
-        <v>73.85376831369065</v>
+        <v>73.85376831369064</v>
       </c>
       <c r="D37" t="n">
-        <v>49.83636242371665</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.04090986163197</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.02799523799405</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.59792657352156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>68.83411972250238</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.05742214232109</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.90033859223229</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>130.6235452520351</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>134.1368443032804</v>
       </c>
       <c r="U37" t="n">
         <v>192.9259765715537</v>
       </c>
       <c r="V37" t="n">
-        <v>158.7445905388908</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>193.1299455516538</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>132.3166026041</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.1916005671576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>125.0009049072227</v>
+        <v>366.0151937848818</v>
       </c>
       <c r="C38" t="n">
         <v>348.5542438924087</v>
@@ -25400,10 +25400,10 @@
         <v>365.211722193663</v>
       </c>
       <c r="F38" t="n">
-        <v>149.1431089854536</v>
+        <v>390.1573978631126</v>
       </c>
       <c r="G38" t="n">
-        <v>157.5698007588772</v>
+        <v>398.5840896365362</v>
       </c>
       <c r="H38" t="n">
         <v>322.7561542371683</v>
@@ -25439,19 +25439,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>113.1665061267555</v>
+        <v>192.3014217076465</v>
       </c>
       <c r="T38" t="n">
-        <v>206.3772016855326</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>234.6270050292377</v>
+        <v>120.8550022562201</v>
       </c>
       <c r="V38" t="n">
-        <v>311.0336105915361</v>
+        <v>70.01932171387705</v>
       </c>
       <c r="W38" t="n">
-        <v>332.5223208388142</v>
+        <v>91.50803196115515</v>
       </c>
       <c r="X38" t="n">
         <v>353.0124527998702</v>
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>149.8145357712686</v>
+        <v>149.8145357712685</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25476,7 +25476,7 @@
         <v>130.72641768604</v>
       </c>
       <c r="E39" t="n">
-        <v>140.9264325768022</v>
+        <v>140.9264325768021</v>
       </c>
       <c r="F39" t="n">
         <v>128.3505645147851</v>
@@ -25485,10 +25485,10 @@
         <v>120.6248692846118</v>
       </c>
       <c r="H39" t="n">
-        <v>95.51679635789768</v>
+        <v>95.51679635789766</v>
       </c>
       <c r="I39" t="n">
-        <v>36.88646444328117</v>
+        <v>72.67798497281628</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>83.43918627404435</v>
+        <v>83.43918627404433</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>154.964523225239</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>18.46669044760168</v>
       </c>
       <c r="U39" t="n">
-        <v>209.222734202376</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>101.192088073404</v>
       </c>
       <c r="C40" t="n">
-        <v>150.5281732200291</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>131.8968251396136</v>
@@ -25558,22 +25558,22 @@
         <v>129.7153147679704</v>
       </c>
       <c r="F40" t="n">
-        <v>128.7024001443325</v>
+        <v>128.7024001443324</v>
       </c>
       <c r="G40" t="n">
         <v>151.27233147986</v>
       </c>
       <c r="H40" t="n">
-        <v>96.17243948221584</v>
+        <v>145.5085246288408</v>
       </c>
       <c r="I40" t="n">
         <v>138.7318270486595</v>
       </c>
       <c r="J40" t="n">
-        <v>76.64053223807399</v>
+        <v>76.64053223807397</v>
       </c>
       <c r="K40" t="n">
-        <v>5.550843947284068</v>
+        <v>5.550843947284051</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.4433953730956</v>
+        <v>69.44339537309558</v>
       </c>
       <c r="R40" t="n">
         <v>160.5747434985707</v>
@@ -25628,19 +25628,19 @@
         <v>370.7845523088681</v>
       </c>
       <c r="C41" t="n">
-        <v>353.323602416395</v>
+        <v>285.9938945989576</v>
       </c>
       <c r="D41" t="n">
-        <v>342.7337522660704</v>
+        <v>266.2922129638027</v>
       </c>
       <c r="E41" t="n">
-        <v>293.5395414153815</v>
+        <v>293.5395414153816</v>
       </c>
       <c r="F41" t="n">
         <v>318.4852170848312</v>
       </c>
       <c r="G41" t="n">
-        <v>326.9119088582548</v>
+        <v>403.3534481605225</v>
       </c>
       <c r="H41" t="n">
         <v>327.5255127611546</v>
@@ -25685,7 +25685,7 @@
         <v>239.396363553224</v>
       </c>
       <c r="V41" t="n">
-        <v>248.4732612980849</v>
+        <v>315.8029691155224</v>
       </c>
       <c r="W41" t="n">
         <v>337.2916793628005</v>
@@ -25707,16 +25707,16 @@
         <v>154.5838942952548</v>
       </c>
       <c r="C42" t="n">
-        <v>84.31767033143547</v>
+        <v>160.7592096337032</v>
       </c>
       <c r="D42" t="n">
-        <v>135.4957762100262</v>
+        <v>68.16606839258885</v>
       </c>
       <c r="E42" t="n">
-        <v>145.6957911007884</v>
+        <v>69.25425179852073</v>
       </c>
       <c r="F42" t="n">
-        <v>133.1199230387714</v>
+        <v>56.67838373650366</v>
       </c>
       <c r="G42" t="n">
         <v>125.3942278085981</v>
@@ -25755,10 +25755,10 @@
         <v>88.20854479803062</v>
       </c>
       <c r="S42" t="n">
-        <v>83.29234244695755</v>
+        <v>83.2923424469576</v>
       </c>
       <c r="T42" t="n">
-        <v>111.7739000379413</v>
+        <v>188.2154393402091</v>
       </c>
       <c r="U42" t="n">
         <v>213.9920927263623</v>
@@ -25773,7 +25773,7 @@
         <v>193.823695848865</v>
       </c>
       <c r="Y42" t="n">
-        <v>126.4036986052544</v>
+        <v>193.7334064226918</v>
       </c>
     </row>
     <row r="43">
@@ -25789,13 +25789,13 @@
         <v>155.2975317440153</v>
       </c>
       <c r="D43" t="n">
-        <v>136.6661836635998</v>
+        <v>60.22464436133214</v>
       </c>
       <c r="E43" t="n">
-        <v>134.4846732919567</v>
+        <v>58.04313398968895</v>
       </c>
       <c r="F43" t="n">
-        <v>133.4717586683187</v>
+        <v>97.27766126968535</v>
       </c>
       <c r="G43" t="n">
         <v>156.0416900038462</v>
@@ -25831,10 +25831,10 @@
         <v>74.21275389708187</v>
       </c>
       <c r="R43" t="n">
-        <v>88.90256272028921</v>
+        <v>165.344102022557</v>
       </c>
       <c r="S43" t="n">
-        <v>175.8732112837265</v>
+        <v>212.0673086823597</v>
       </c>
       <c r="T43" t="n">
         <v>215.996300073669</v>
@@ -25849,7 +25849,7 @@
         <v>274.5737089819785</v>
       </c>
       <c r="X43" t="n">
-        <v>137.3188267321569</v>
+        <v>213.7603660344246</v>
       </c>
       <c r="Y43" t="n">
         <v>206.6353639974823</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>306.2923023612129</v>
       </c>
       <c r="C44" t="n">
-        <v>288.8313524687398</v>
+        <v>297.9431839535702</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,13 +25880,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>294.085082867487</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>134.0343502681382</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,13 +25907,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>132.5785302839776</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>272.7994294151453</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>309.7963993537859</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25953,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>68.62767309111612</v>
+        <v>77.7395045759465</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>60.90197786094294</v>
       </c>
       <c r="H45" t="n">
-        <v>35.79390493422871</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25989,7 +25989,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.71629485037538</v>
+        <v>23.71629485037543</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.3529879598669</v>
+        <v>129.2411564750367</v>
       </c>
     </row>
     <row r="46">
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>68.97950872066349</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>111.2455510753585</v>
+        <v>91.54944005619106</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>98.70504664415793</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>245693.0883479503</v>
+        <v>245693.0883479504</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>262551.4912738905</v>
+        <v>262551.4912738907</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>518664.3847849732</v>
+        <v>518664.3847849733</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>518664.3847849733</v>
+        <v>518664.3847849732</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>342898.3257310415</v>
+        <v>342898.3257310416</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>260989.7768904191</v>
+        <v>260989.776890419</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>235422.8593640873</v>
+        <v>235422.8593640872</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811868</v>
+        <v>778312.5217811867</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811866</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811867</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="E2" t="n">
-        <v>253878.8666404718</v>
+        <v>253878.8666404721</v>
       </c>
       <c r="F2" t="n">
-        <v>273898.2201150253</v>
+        <v>273898.2201150254</v>
       </c>
       <c r="G2" t="n">
         <v>347920.5282024231</v>
@@ -26332,28 +26332,28 @@
         <v>347920.5282024231</v>
       </c>
       <c r="I2" t="n">
-        <v>564426.8390372697</v>
+        <v>564426.8390372696</v>
       </c>
       <c r="J2" t="n">
-        <v>564426.8390372698</v>
+        <v>564426.8390372696</v>
       </c>
       <c r="K2" t="n">
-        <v>575662.2654566875</v>
+        <v>575662.2654566874</v>
       </c>
       <c r="L2" t="n">
         <v>575662.2654566875</v>
       </c>
       <c r="M2" t="n">
-        <v>541280.0291052476</v>
+        <v>541280.0291052478</v>
       </c>
       <c r="N2" t="n">
-        <v>357509.2640365084</v>
+        <v>357509.264036509</v>
       </c>
       <c r="O2" t="n">
         <v>272043.6842846533</v>
       </c>
       <c r="P2" t="n">
-        <v>241682.9697221341</v>
+        <v>241682.969722134</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>26639.24874098154</v>
+        <v>26639.24874098153</v>
       </c>
       <c r="F3" t="n">
-        <v>6362.295536872284</v>
+        <v>6362.295536872307</v>
       </c>
       <c r="G3" t="n">
         <v>45106.92206737115</v>
@@ -26387,7 +26387,7 @@
         <v>80596.05573640764</v>
       </c>
       <c r="J3" t="n">
-        <v>3815.486819189014</v>
+        <v>3815.486819189029</v>
       </c>
       <c r="K3" t="n">
         <v>10595.86683509063</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372333.3576540839</v>
+        <v>371769.4364003804</v>
       </c>
       <c r="C4" t="n">
-        <v>372333.3576540839</v>
+        <v>371769.4364003804</v>
       </c>
       <c r="D4" t="n">
-        <v>372333.3576540839</v>
+        <v>371769.4364003804</v>
       </c>
       <c r="E4" t="n">
-        <v>39963.86841175795</v>
+        <v>39294.54558341453</v>
       </c>
       <c r="F4" t="n">
-        <v>52003.91629486009</v>
+        <v>51334.59346651672</v>
       </c>
       <c r="G4" t="n">
-        <v>62269.20709503332</v>
+        <v>61391.37819101398</v>
       </c>
       <c r="H4" t="n">
-        <v>62269.20709503333</v>
+        <v>61391.37819101398</v>
       </c>
       <c r="I4" t="n">
-        <v>187550.1302618089</v>
+        <v>186640.4159297551</v>
       </c>
       <c r="J4" t="n">
-        <v>187550.1302618089</v>
+        <v>186640.4159297551</v>
       </c>
       <c r="K4" t="n">
-        <v>194034.5100736784</v>
+        <v>193123.0225548422</v>
       </c>
       <c r="L4" t="n">
-        <v>194034.5100736784</v>
+        <v>193123.0225548423</v>
       </c>
       <c r="M4" t="n">
-        <v>178589.7003364977</v>
+        <v>177711.8714324785</v>
       </c>
       <c r="N4" t="n">
-        <v>68036.3574438279</v>
+        <v>67158.52853980858</v>
       </c>
       <c r="O4" t="n">
-        <v>50888.50471756286</v>
+        <v>50219.18188921942</v>
       </c>
       <c r="P4" t="n">
-        <v>32629.96345974231</v>
+        <v>31960.64063139887</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>5048.600791330883</v>
+        <v>5048.60079133088</v>
       </c>
       <c r="F5" t="n">
         <v>5717.190570692528</v>
@@ -26497,7 +26497,7 @@
         <v>27152.77490791644</v>
       </c>
       <c r="L5" t="n">
-        <v>27152.77490791644</v>
+        <v>27152.77490791643</v>
       </c>
       <c r="M5" t="n">
         <v>22505.12931833856</v>
@@ -26506,10 +26506,10 @@
         <v>16059.18877226759</v>
       </c>
       <c r="O5" t="n">
-        <v>5652.210396330799</v>
+        <v>5652.210396330796</v>
       </c>
       <c r="P5" t="n">
-        <v>4647.645589577879</v>
+        <v>4647.645589577876</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372351.5641271029</v>
+        <v>372915.4853808063</v>
       </c>
       <c r="C6" t="n">
-        <v>372351.5641271024</v>
+        <v>372915.4853808062</v>
       </c>
       <c r="D6" t="n">
-        <v>372351.5641271028</v>
+        <v>372915.4853808061</v>
       </c>
       <c r="E6" t="n">
-        <v>182227.1486964014</v>
+        <v>182896.4715247451</v>
       </c>
       <c r="F6" t="n">
-        <v>209814.8177126004</v>
+        <v>210484.1405409438</v>
       </c>
       <c r="G6" t="n">
-        <v>224821.1852951423</v>
+        <v>225699.0141991617</v>
       </c>
       <c r="H6" t="n">
-        <v>269928.1073625134</v>
+        <v>270805.9362665328</v>
       </c>
       <c r="I6" t="n">
-        <v>269708.6981639877</v>
+        <v>270618.4124960414</v>
       </c>
       <c r="J6" t="n">
-        <v>346489.2670812065</v>
+        <v>347398.98141326</v>
       </c>
       <c r="K6" t="n">
-        <v>343879.113640002</v>
+        <v>344790.6011588381</v>
       </c>
       <c r="L6" t="n">
-        <v>354474.9804750928</v>
+        <v>355386.4679939288</v>
       </c>
       <c r="M6" t="n">
-        <v>340185.1994504113</v>
+        <v>341063.0283544308</v>
       </c>
       <c r="N6" t="n">
-        <v>273413.7178204129</v>
+        <v>274291.5467244328</v>
       </c>
       <c r="O6" t="n">
-        <v>215502.9691707597</v>
+        <v>216172.2919991031</v>
       </c>
       <c r="P6" t="n">
-        <v>204405.3606728139</v>
+        <v>205074.6835011573</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="F2" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="G2" t="n">
         <v>12.72222794507668</v>
@@ -26710,16 +26710,16 @@
         <v>89.39663285141505</v>
       </c>
       <c r="K2" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="L2" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="M2" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="N2" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="O2" t="n">
         <v>11.94928935461252</v>
@@ -26796,10 +26796,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="F4" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26826,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="P4" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="F2" t="n">
-        <v>7.952869421090355</v>
+        <v>7.952869421090384</v>
       </c>
       <c r="G2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>76.6744049063384</v>
       </c>
       <c r="J2" t="n">
-        <v>4.769358523986267</v>
+        <v>4.769358523986286</v>
       </c>
       <c r="K2" t="n">
         <v>11.94928935461252</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5727495753913</v>
+        <v>164.5727495753914</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="K2" t="n">
-        <v>7.952869421090355</v>
+        <v>7.952869421090384</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>76.6744049063384</v>
       </c>
       <c r="O2" t="n">
-        <v>4.769358523986267</v>
+        <v>4.769358523986286</v>
       </c>
       <c r="P2" t="n">
         <v>11.94928935461252</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>164.5727495753913</v>
+        <v>164.5727495753914</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="C11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="D11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="E11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="F11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="G11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="H11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="I11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="J11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28132,31 +28132,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="R11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="S11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="T11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="U11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="V11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="W11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="X11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="C12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="D12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="E12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="F12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="G12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="H12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="I12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="S12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="T12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="U12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="V12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="W12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="X12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="Y12" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="C13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="D13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="E13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="F13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="G13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="H13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="I13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="J13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="K13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="L13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="M13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="N13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="O13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="P13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="R13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="S13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="T13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="U13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="V13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="W13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="X13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.769358523986296</v>
+        <v>4.7693585239863</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="C14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="D14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="E14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="F14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="G14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="H14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="I14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -28372,28 +28372,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="S14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="T14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="U14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="V14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="W14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="X14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
     </row>
     <row r="15">
@@ -28403,28 +28403,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="C15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="D15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="E15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="F15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="G15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="H15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="I15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="S15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="T15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="U15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="V15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="W15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="X15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="C16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="D16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="E16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="F16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="G16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="H16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="I16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="J16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="K16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="L16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="M16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="N16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="O16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="P16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="Q16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="R16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="S16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="T16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="U16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="V16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="W16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="X16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.72222794507665</v>
+        <v>12.72222794507668</v>
       </c>
     </row>
     <row r="17">
@@ -29062,13 +29062,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>40.4821854718364</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="Q23" t="n">
-        <v>40.4821854718364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="R23" t="n">
         <v>89.39663285141508</v>
@@ -29308,16 +29308,16 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>40.48218547183637</v>
+      </c>
+      <c r="P26" t="n">
         <v>89.39663285141505</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>89.39663285141505</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>40.48218547183633</v>
       </c>
       <c r="R26" t="n">
         <v>89.39663285141505</v>
@@ -29372,7 +29372,7 @@
         <v>89.39663285141505</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>89.39663285141505</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29509,34 +29509,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="J29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>44.43844038090083</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -29545,40 +29545,40 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.39305278493721</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="P29" t="n">
-        <v>44.438440380901</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="R29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="30">
@@ -29588,25 +29588,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y30" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="J31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="K31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="L31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="M31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="N31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="O31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="P31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="R31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.39305278493721</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="J32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>44.43844038090095</v>
+        <v>44.43844038090099</v>
       </c>
       <c r="O32" t="n">
-        <v>93.39305278493718</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Q32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="R32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y32" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="33">
@@ -29825,25 +29825,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G33" t="n">
         <v>93.3930527849372</v>
       </c>
       <c r="H33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y33" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="34">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="J34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="K34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="L34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="M34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="N34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="O34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="P34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Q34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="R34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30031,28 +30031,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y35" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="36">
@@ -30062,25 +30062,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y36" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="37">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="C37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="D37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="E37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="F37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="G37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="H37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="I37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="J37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="K37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="L37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="M37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="N37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="O37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="P37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Q37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="R37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="S37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="T37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="U37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="V37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="W37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="X37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.39305278493718</v>
+        <v>93.3930527849372</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="C38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="D38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="E38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="F38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="G38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="H38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="I38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30268,28 +30268,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="S38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="T38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="U38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="V38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="W38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="X38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
     </row>
     <row r="39">
@@ -30299,28 +30299,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="C39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="D39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="E39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="F39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="G39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="H39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="I39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30347,28 +30347,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="S39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="T39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="U39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="V39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="W39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="X39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="Y39" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
     </row>
     <row r="40">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="C40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="D40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="E40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="F40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="G40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="H40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="I40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="J40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="K40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="L40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="M40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="N40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="O40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="P40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="R40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="S40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="T40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="U40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="V40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="W40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="X40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.71864787859878</v>
+        <v>16.7186478785988</v>
       </c>
     </row>
     <row r="41">
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="L11" t="n">
-        <v>73.35299225975186</v>
+        <v>73.35299225975179</v>
       </c>
       <c r="M11" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="L12" t="n">
-        <v>76.44153930226776</v>
+        <v>3.257478609924245</v>
       </c>
       <c r="M12" t="n">
-        <v>73.35299225975187</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="P12" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>29.35448643802597</v>
       </c>
       <c r="P13" t="n">
-        <v>2.047917788879784</v>
+        <v>2.047917788879788</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>73.35299225975186</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="L14" t="n">
-        <v>76.44153930226776</v>
+        <v>73.35299225975179</v>
       </c>
       <c r="M14" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3.257478609924246</v>
       </c>
       <c r="N15" t="n">
-        <v>3.257478609924302</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="O15" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="P15" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35808,19 +35808,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>40.31225320539279</v>
+        <v>40.31225320539282</v>
       </c>
       <c r="M16" t="n">
-        <v>52.30610490691724</v>
+        <v>52.30610490691727</v>
       </c>
       <c r="N16" t="n">
-        <v>56.85440032430525</v>
+        <v>56.85440032430527</v>
       </c>
       <c r="O16" t="n">
-        <v>37.30735585911633</v>
+        <v>37.30735585911636</v>
       </c>
       <c r="P16" t="n">
-        <v>10.00078720997014</v>
+        <v>10.00078720997017</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>77.44734349680256</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>144.5377469980206</v>
       </c>
       <c r="L23" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M23" t="n">
-        <v>308.5639331169749</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N23" t="n">
         <v>207.9338608153932</v>
@@ -36376,7 +36376,7 @@
         <v>179.9623452676282</v>
       </c>
       <c r="Q23" t="n">
-        <v>30.4914862572916</v>
+        <v>79.40593363687027</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
@@ -36449,13 +36449,13 @@
         <v>313.4287721690761</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0.7001171264051902</v>
       </c>
       <c r="P24" t="n">
-        <v>130.641715207774</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36604,16 +36604,16 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>297.3304936668083</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>240.0986026924737</v>
+        <v>191.184155312895</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>179.9623452676282</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.49148625729153</v>
+        <v>79.40593363687024</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>313.4287721690761</v>
+        <v>295.1487799867812</v>
       </c>
       <c r="N27" t="n">
         <v>313.4287721690761</v>
@@ -36689,10 +36689,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>4.017917169554411</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>81.44376343032469</v>
+        <v>81.44376343032468</v>
       </c>
       <c r="K29" t="n">
-        <v>104.0555615261842</v>
+        <v>148.494001907085</v>
       </c>
       <c r="L29" t="n">
         <v>181.8947995804632</v>
@@ -36841,16 +36841,16 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
-        <v>301.3269136003304</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>244.0950226259958</v>
       </c>
       <c r="P29" t="n">
-        <v>135.0041527971141</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.40235357039241</v>
+        <v>83.40235357039239</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>317.4558281799268</v>
       </c>
       <c r="N30" t="n">
-        <v>307.0672386855614</v>
+        <v>144.8767868118039</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.03387266826443636</v>
+        <v>0.03387266826442215</v>
       </c>
       <c r="K31" t="n">
-        <v>71.12356095905436</v>
+        <v>71.12356095905434</v>
       </c>
       <c r="L31" t="n">
-        <v>120.9830780452534</v>
+        <v>120.9830780452533</v>
       </c>
       <c r="M31" t="n">
         <v>132.9769297467778</v>
@@ -37005,10 +37005,10 @@
         <v>117.9781806989769</v>
       </c>
       <c r="P31" t="n">
-        <v>90.6716120498307</v>
+        <v>90.67161204983069</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.231009533242826</v>
+        <v>7.231009533242812</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>81.44376343032467</v>
+        <v>81.44376343032468</v>
       </c>
       <c r="K32" t="n">
         <v>104.0555615261842</v>
@@ -37081,13 +37081,13 @@
         <v>252.3723011962942</v>
       </c>
       <c r="O32" t="n">
-        <v>244.0950226259958</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>183.9587652011503</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.40235357039238</v>
+        <v>83.40235357039239</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>59.70692415546209</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>317.4558281799268</v>
       </c>
       <c r="N33" t="n">
-        <v>317.4558281799268</v>
+        <v>74.78127316197627</v>
       </c>
       <c r="O33" t="n">
         <v>251.2660748322851</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03387266826440793</v>
+        <v>0.03387266826442215</v>
       </c>
       <c r="K34" t="n">
-        <v>71.12356095905433</v>
+        <v>71.12356095905434</v>
       </c>
       <c r="L34" t="n">
         <v>120.9830780452533</v>
@@ -37242,10 +37242,10 @@
         <v>117.9781806989769</v>
       </c>
       <c r="P34" t="n">
-        <v>90.67161204983067</v>
+        <v>90.67161204983069</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.231009533242798</v>
+        <v>7.231009533242812</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37397,13 +37397,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.03387266826440793</v>
+        <v>0.03387266826442215</v>
       </c>
       <c r="K37" t="n">
-        <v>71.12356095905433</v>
+        <v>71.12356095905434</v>
       </c>
       <c r="L37" t="n">
         <v>120.9830780452533</v>
@@ -37479,10 +37479,10 @@
         <v>117.9781806989769</v>
       </c>
       <c r="P37" t="n">
-        <v>90.67161204983067</v>
+        <v>90.67161204983069</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.231009533242798</v>
+        <v>7.231009533242812</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O38" t="n">
         <v>150.7019698410586</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,19 +37704,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>44.30867313891493</v>
+        <v>44.30867313891494</v>
       </c>
       <c r="M40" t="n">
-        <v>56.30252484043937</v>
+        <v>56.30252484043939</v>
       </c>
       <c r="N40" t="n">
-        <v>60.85082025782738</v>
+        <v>60.85082025782739</v>
       </c>
       <c r="O40" t="n">
-        <v>41.30377579263846</v>
+        <v>41.30377579263848</v>
       </c>
       <c r="P40" t="n">
-        <v>13.99720714349227</v>
+        <v>13.99720714349229</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="L41" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="M41" t="n">
-        <v>73.35299225975187</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>73.3529922597518</v>
       </c>
       <c r="O41" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="L42" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="M42" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>73.3529922597518</v>
       </c>
       <c r="O42" t="n">
-        <v>73.35299225975187</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>73.35299225975186</v>
+        <v>73.35299225975179</v>
       </c>
       <c r="N44" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="O44" t="n">
-        <v>76.44153930226776</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="M45" t="n">
-        <v>76.44153930226776</v>
+        <v>73.35299225975179</v>
       </c>
       <c r="N45" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="O45" t="n">
-        <v>76.44153930226776</v>
+        <v>76.4415393022677</v>
       </c>
       <c r="P45" t="n">
-        <v>73.35299225975187</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
